--- a/politicians.xlsx
+++ b/politicians.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="337">
   <si>
     <t>Klaus</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Sibiu</t>
   </si>
   <si>
-    <t>Presedintele Romaniei.</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
     <t>https://cdn.g4media.ro/wp-content/uploads/2023/02/07a32c75-338b-48d0-80d2-6c2885ef7682-e1675958424380.jpg</t>
   </si>
   <si>
@@ -45,15 +39,6 @@
     <t>Orban</t>
   </si>
   <si>
-    <t>Former Prime Minister of Romania (2019-2020)</t>
-  </si>
-  <si>
-    <t>Ludovic Orban is a Romanian politician who served as Prime Minister of Romania from November 2019 to December 2020. He is a member of the National Liberal Party (PNL).</t>
-  </si>
-  <si>
-    <t>Brasov</t>
-  </si>
-  <si>
     <t>https://putereaacincea.ro/wp-content/uploads/2022/07/Ludovic-Orban-Foto-ludovicorban.ro_.jpg</t>
   </si>
   <si>
@@ -63,27 +48,12 @@
     <t>Dăncilă</t>
   </si>
   <si>
-    <t>Bucharest</t>
-  </si>
-  <si>
-    <t>Former Prime Minister of Romania (2018-2019)</t>
-  </si>
-  <si>
-    <t>Viorica Dăncilă is a Romanian politician who served as the Prime Minister of Romania from January 2018 to November 2019. She was a member of the Social Democratic Party (PSD).</t>
-  </si>
-  <si>
     <t>Dan</t>
   </si>
   <si>
     <t>Barna</t>
   </si>
   <si>
-    <t>Deputy Prime Minister of Romania</t>
-  </si>
-  <si>
-    <t>Dan Barna is a Romanian politician who currently serves as the Deputy Prime Minister of Romania. He is also the president of the Save Romania Union (USR) party.</t>
-  </si>
-  <si>
     <t>Marcel</t>
   </si>
   <si>
@@ -93,12 +63,6 @@
     <t>Piatra Neamț</t>
   </si>
   <si>
-    <t>President of the Chamber of Deputies of Romania</t>
-  </si>
-  <si>
-    <t>Marcel Ciolacu is a Romanian politician who currently serves as the President of the Chamber of Deputies of Romania. He is a member of the Social Democratic Party (PSD).</t>
-  </si>
-  <si>
     <t>https://media.capital.ro/wp-content/uploads/2019/06/dancila-2.jpg</t>
   </si>
   <si>
@@ -120,13 +84,952 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Image URL</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Political Party</t>
+  </si>
+  <si>
+    <t>Political Party Position</t>
+  </si>
+  <si>
+    <t>Klaus Werner Iohannis, născut în Sibiu, Regiunea Stalin, Republica Populară Română este un politician român de etnie germană (mai precis sas transilvan), care de la data de 21 decembrie 2014 ocupă funcția de președinte al României.</t>
+  </si>
+  <si>
+    <t>13.06.1959</t>
+  </si>
+  <si>
+    <t>PNL</t>
+  </si>
+  <si>
+    <t>Membru</t>
+  </si>
+  <si>
+    <t>Președintele României</t>
+  </si>
+  <si>
+    <t>Ludovic Orban este un politician și inginer român, care a deținut funcția de președinte al Partidului Național Liberal (17 iunie 2017 - 25 septembrie 2021). A fost cel de-al 68-lea prim-ministru al României în perioada 4 noiembrie 2019 – 7 decembrie 2020 (în guvernele Orban 1 și Orban 2). În perioada aprilie 2007 – decembrie 2008 a fost ministru al transporturilor în Guvernul Tăriceanu, Guvernarea sa a fost marcată de pandemia de COVID-19 în România.</t>
+  </si>
+  <si>
+    <t>Fost Prim Ministru al României (2019-2020)</t>
+  </si>
+  <si>
+    <t>Brașov</t>
+  </si>
+  <si>
+    <t>București</t>
+  </si>
+  <si>
+    <t>25.04.1963</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Președinte</t>
+  </si>
+  <si>
+    <t>Vasilica-Viorica Dăncilă este o politiciană română, fost președinte al Partidului Social Democrat, care a ocupat funcția de cel de-al 67-lea prim-ministru al României de la 29 ianuarie 2018 până la 4 noiembrie 2019. Este prima femeie din istoria României care a deținut această funcție. Din 12 aprilie 2022 este președintele Partidului Națiune Oameni Împreună - prescurtat NOI, în urma primului Congres Național al partidului, organizat în Bucuresti.</t>
+  </si>
+  <si>
+    <t>Fost Prim-Ministru al României (2018-2019)</t>
+  </si>
+  <si>
+    <t>16.01.1963</t>
+  </si>
+  <si>
+    <t>NOI</t>
+  </si>
+  <si>
+    <t>Ilie Dan Barna este un politician român, vicepremier în Guvernul Florin Cîțu din 23 decembrie 2020 până în 7 septembrie 2021, membru al Camerei Deputaților din 2016 și fost președinte al Uniunii Salvați România (2017-2021), al treilea cel mai mare partid din Parlamentul României.</t>
+  </si>
+  <si>
+    <t>Europarlamentar</t>
+  </si>
+  <si>
+    <t>10.01.1975</t>
+  </si>
+  <si>
+    <t>USR</t>
+  </si>
+  <si>
+    <t>Ion-Marcel Ciolacu este un politician social-democrat român, care ocupă din iunie 2023 funcția de prim-ministru al României. Prima funcție publică deținută a fost cea de prefect interimar, în noiembrie–decembrie 2005, după care a devenit, pe rând, director al firmei municipalității Buzău Urbis Serv și viceprimar al municipiului Buzău (2008–2012).</t>
+  </si>
+  <si>
+    <t>28.11.1967</t>
+  </si>
+  <si>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t>Prim-Ministru al României</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Pleșa</t>
+  </si>
+  <si>
+    <t>Alba Iulia</t>
+  </si>
+  <si>
+    <t>Gabriel Codru Pleșa este primarul municipiului Alba Iulia, din anul 2020, câștigând alegerile alături alianța USR PLUS. Anterior a ocupat funcția de viceprimar, în perioada 2015-2020 și cea de consilier local între 2004-2015.</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Alba Iulia</t>
+  </si>
+  <si>
+    <t>11.10.1966</t>
+  </si>
+  <si>
+    <t>https://alba24.ro/wp-content/uploads/2021/05/gabriel-plesa-1000x600.jpeg</t>
+  </si>
+  <si>
+    <t>Călin</t>
+  </si>
+  <si>
+    <t>Bibarț</t>
+  </si>
+  <si>
+    <t>Arad</t>
+  </si>
+  <si>
+    <t>https://storage0.dms.mpinteractiv.ro/media/1/1/1687/18199387/1/bibart.jpg</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Arad</t>
+  </si>
+  <si>
+    <t>https://argestv.ro/wp-content/uploads/2024/03/2-gentea.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristian </t>
+  </si>
+  <si>
+    <t>Gentea</t>
+  </si>
+  <si>
+    <t>Pitești</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Pitești</t>
+  </si>
+  <si>
+    <t>Cristian Gentea este un politician român, ales în 2020 primar al municipiului Pitești. A lucrat ca inginer fizician la Institutul de Cercetări Nucleare.[necesită citare]. În 2020, era consilier local, președinte al filialei Partidului Social Democrat Pitești. Cristian Gentea a absolvit Facultatea de Fizică din cadrul Universității din București.</t>
+  </si>
+  <si>
+    <t>17.08.1963</t>
+  </si>
+  <si>
+    <t>Lucian</t>
+  </si>
+  <si>
+    <t>Stanciu Viziteu</t>
+  </si>
+  <si>
+    <t>Lucian-Daniel Stanciu-Viziteu este un deputat român, ales în 2016. Actualmente este primar al municipiului Bacău, funcție câștigată la alegerile locale din 2020.</t>
+  </si>
+  <si>
+    <t>10.09.1984</t>
+  </si>
+  <si>
+    <t>https://lucianstanciuviziteu.ro/wp-content/uploads/2017/02/rsz_145.jpg</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Bacău</t>
+  </si>
+  <si>
+    <t>Bacău</t>
+  </si>
+  <si>
+    <t>https://cdn.ebihoreanul.ro/static/gallery_big/04-birta.jpg</t>
+  </si>
+  <si>
+    <t>Florin</t>
+  </si>
+  <si>
+    <t>Birta</t>
+  </si>
+  <si>
+    <t>Florin-Alin Birta este un politician român, care ocupă funcția de primar al municipiului Oradea din 2020, înlocuindu-l pe Ilie Bolojan din care a devenit președinte al Consiliului Județean Bihor, anterior a fost viceprimar în perioada între anii 2016 până când a fost învestit din funcția de primar în octombrie 2020.</t>
+  </si>
+  <si>
+    <t>Oradea</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Oradea</t>
+  </si>
+  <si>
+    <t>25.06.1983</t>
+  </si>
+  <si>
+    <t>https://timponline.ro/wp-content/uploads/2017/06/ioan-turc-23-iun-17.jpg</t>
+  </si>
+  <si>
+    <t>Ioan</t>
+  </si>
+  <si>
+    <t>Turc</t>
+  </si>
+  <si>
+    <t>Bistrița</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Bistrița</t>
+  </si>
+  <si>
+    <t>Cosmin</t>
+  </si>
+  <si>
+    <t>Andrei</t>
+  </si>
+  <si>
+    <t>Botoșani</t>
+  </si>
+  <si>
+    <t>Marian</t>
+  </si>
+  <si>
+    <t>Dragomir</t>
+  </si>
+  <si>
+    <t>Brăila</t>
+  </si>
+  <si>
+    <t>Nicușor</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>București Sector 1</t>
+  </si>
+  <si>
+    <t>București Sector 2</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Negoiță</t>
+  </si>
+  <si>
+    <t>București Sector 3</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Băluță</t>
+  </si>
+  <si>
+    <t>București Sector 4</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Popescu Piedone</t>
+  </si>
+  <si>
+    <t>București Sector 5</t>
+  </si>
+  <si>
+    <t>Ciprian</t>
+  </si>
+  <si>
+    <t>Ciucu</t>
+  </si>
+  <si>
+    <t>București Sector 6</t>
+  </si>
+  <si>
+    <t>Constantin</t>
+  </si>
+  <si>
+    <t>Toma</t>
+  </si>
+  <si>
+    <t>Buzău</t>
+  </si>
+  <si>
+    <t>Popa</t>
+  </si>
+  <si>
+    <t>Reșița</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Boc</t>
+  </si>
+  <si>
+    <t>Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>Vergil</t>
+  </si>
+  <si>
+    <t>Chițac</t>
+  </si>
+  <si>
+    <t>Constanța</t>
+  </si>
+  <si>
+    <t>Antal</t>
+  </si>
+  <si>
+    <t>Arpad</t>
+  </si>
+  <si>
+    <t>Sfântu Gheorghe</t>
+  </si>
+  <si>
+    <t>UDMR</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Târgoviște</t>
+  </si>
+  <si>
+    <t>Olguța</t>
+  </si>
+  <si>
+    <t>Vasilescu</t>
+  </si>
+  <si>
+    <t>Craiova</t>
+  </si>
+  <si>
+    <t>Ionuț</t>
+  </si>
+  <si>
+    <t>Pucheanu</t>
+  </si>
+  <si>
+    <t>Galați</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Anghelescu</t>
+  </si>
+  <si>
+    <t>Giurgiu</t>
+  </si>
+  <si>
+    <t>Romanescu</t>
+  </si>
+  <si>
+    <t>Târgu Jiu</t>
+  </si>
+  <si>
+    <t>Korodi</t>
+  </si>
+  <si>
+    <t>Attila</t>
+  </si>
+  <si>
+    <t>Miercurea Ciuc</t>
+  </si>
+  <si>
+    <t>Deva</t>
+  </si>
+  <si>
+    <t>Dragoș</t>
+  </si>
+  <si>
+    <t>Soare</t>
+  </si>
+  <si>
+    <t>Slobozia</t>
+  </si>
+  <si>
+    <t>Mihai</t>
+  </si>
+  <si>
+    <t>Chirica</t>
+  </si>
+  <si>
+    <t>Iași</t>
+  </si>
+  <si>
+    <t>Cătălin</t>
+  </si>
+  <si>
+    <t>Cherecheș</t>
+  </si>
+  <si>
+    <t>Baia Mare</t>
+  </si>
+  <si>
+    <t>Marius</t>
+  </si>
+  <si>
+    <t>Screciu</t>
+  </si>
+  <si>
+    <t>Drobeta-Turnu Severin</t>
+  </si>
+  <si>
+    <t>Soos</t>
+  </si>
+  <si>
+    <t>Zoltan</t>
+  </si>
+  <si>
+    <t>Târgu Mureș</t>
+  </si>
+  <si>
+    <t>Slatina</t>
+  </si>
+  <si>
+    <t>Ploiești</t>
+  </si>
+  <si>
+    <t>Kereskenyi</t>
+  </si>
+  <si>
+    <t>Gabor</t>
+  </si>
+  <si>
+    <t>Satu Mare</t>
+  </si>
+  <si>
+    <t>Ionel</t>
+  </si>
+  <si>
+    <t>Ciunt</t>
+  </si>
+  <si>
+    <t>Zalău</t>
+  </si>
+  <si>
+    <t>Astrid</t>
+  </si>
+  <si>
+    <t>Fodor</t>
+  </si>
+  <si>
+    <t>FDGR</t>
+  </si>
+  <si>
+    <t>Suceava</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Drăgușin</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Dominic</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t>Timișoara</t>
+  </si>
+  <si>
+    <t>Ștefan</t>
+  </si>
+  <si>
+    <t>Ilie</t>
+  </si>
+  <si>
+    <t>Tulcea</t>
+  </si>
+  <si>
+    <t>Vasile</t>
+  </si>
+  <si>
+    <t>Pavăl</t>
+  </si>
+  <si>
+    <t>Vaslui</t>
+  </si>
+  <si>
+    <t>Mircea</t>
+  </si>
+  <si>
+    <t>Gutău</t>
+  </si>
+  <si>
+    <t>Râmnicu Vâlcea</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Misăilă</t>
+  </si>
+  <si>
+    <t>Focșani</t>
+  </si>
+  <si>
+    <t>Ioan Turc (n. 28 iunie 1969, Bistrița, România) este un politician român, membru al Parlamentului României în perioada 2007-2008 ca deputat PNL. Ioan Turc a fost validat ca deputat pe data de 19 decembrie 2007 și l-a înlocuit pe deputatul Augustin Zegrean, care a fost ales judecător la Curtea Constituțională. Ioan Turc a fost membru în grupul parlamentar de prietenie cu Republica Lituania. În perioada 2004-2007, Ioan Turc a fost viceprimar al municipiului Bistrița. Timp de 10 ani a fost director al Oficiului Registrului Comerțului de pe lângă Tribunalul Bistrița Năsăud. În urma alegerilor din 27 septembrie 2020, a devenit primarul municipiului Bistrița pentru mandatul 2020-2024.</t>
+  </si>
+  <si>
+    <t>28.06.1969</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 1</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 6</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 5</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 4</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 3</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 2</t>
+  </si>
+  <si>
+    <t>Primar General al Bucureștiului</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwMiUyRjAyJTJGMTg5NDU4M18xODk0/NTgzX2Nvc21pbi1hbmRyZWktMS5qcGVn/Jnc9NzgwJmg9NDQwJmhhc2g9YTczY2M0/NGQ5MWE0Yjc3Y2RjOTI1OTg5MGM2ZTIwZmU=.thumb.jpg</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Brașov</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Brăila</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Buzău</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Reșița</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Constanța</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Sfântu Gheorghe</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Târgoviște</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Craiova</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Galați</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Giurgiu</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Târgu Jiu</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Miercurea Ciuc</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Deva</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Slobozia</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Iași</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Baia Mare</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Drobeta-Turnu Severin</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Târgu Mureș</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Piatra Neamț</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Slatina</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Ploiești</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Satu Mare</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Zalău</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Sibiu</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Suceava</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Alexandria</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Timișoara</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Tulcea</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Vaslui</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Râmnicu Vâlcea</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Focșani</t>
+  </si>
+  <si>
+    <t>16.06.1975</t>
+  </si>
+  <si>
+    <t>Viorel Marian Dragomir este un fost deputat român, ales în 2012 din partea Partidului Social Democrat. În prezent este primarul municipiului Brăila.</t>
+  </si>
+  <si>
+    <t>https://candidatiibrailei.wordpress.com/wp-content/uploads/2016/04/marian-dragomir.jpg?w=960&amp;h=800&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA2dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjAl/MkYxMiUyRjI3JTJGMTI2ODYyM18xMjY4/NjIzX2dlb3JnZS10dXRhLmpwZyZ3PTc4/MCZoPTQ0MCZoYXNoPTIxNjRjYzNhZTJmZGZiYjM2Zjc2MWUxMzMyMzUwYWI0.thumb.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George </t>
+  </si>
+  <si>
+    <t>Tuță</t>
+  </si>
+  <si>
+    <t>George-Cristian Tuță este un om politic român, membru al Parlamentului României și Chestor al Camerei Deputaților din decembrie 2020[1]. A fost ales membru al Biroului Executiv al Partidului Național Liberal în 2021, iar în cadrul Camerei Deputaților activează în Comisia pentru Afaceri Europene și în Comisia pentru Industrie și Servicii. Din decembrie 2023, este președinte interimar al organizației PNL Sector 1.</t>
+  </si>
+  <si>
+    <t>8.08.1984</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f4/Rare%C8%99_Hopinc%C4%83.jpg/1200px-Rare%C8%99_Hopinc%C4%83.jpg</t>
+  </si>
+  <si>
+    <t>Rareș</t>
+  </si>
+  <si>
+    <t>Mihaiu Hpincă</t>
+  </si>
+  <si>
+    <t>Rareș Hopincă  este un politician român, membru al Partidului Social Democrat începând cu anul 2009. Acesta a deținut funcția de Prefect al Capitalei în perioada iulie 2023-aprilie 2024. În aprilie 2024, Hopincă și-a depus demisia din funcția de prefect și a anunțat candidatura la Primăria Sectorului 2 din București.</t>
+  </si>
+  <si>
+    <t>29.08.1984</t>
+  </si>
+  <si>
+    <t>Vlad</t>
+  </si>
+  <si>
+    <t>20.01.2969</t>
+  </si>
+  <si>
+    <t>Nicușor Dan este un activist civic și matematician român, inițiator și fost președinte al partidului Uniunea Salvați România (USR), candidat pentru funcția de primar general al Bucureștiului la alegerile din iunie 2012 și alegerile locale din 2016, consilier general al municipiului București în 2016 și, din decembrie 2016, deputat de București. La alegerile locale din 2020 a fost ales în funcția de primar general al capitalei cu 42,8% din voturi, iar la alegerile locale din 2024 a fost reales cu 46,9%.</t>
+  </si>
+  <si>
+    <t>https://cdn.knd.ro/media/521/2863/1662/20157448/1/nicusor-dan.jpg</t>
+  </si>
+  <si>
+    <t>Vlad Popescu Piedone (n. 16 septembrie 1989, București, România) este un primar al sectorului 5 și fost deputat român.</t>
+  </si>
+  <si>
+    <t>16.09.1989</t>
+  </si>
+  <si>
+    <t>https://pusl.ro/wp-content/uploads/2024/03/412836927_778862074253936_2832879109907468926_n-e1711727410590.jpg</t>
+  </si>
+  <si>
+    <t>Robert Sorin Negoiță este un politician și om de afaceri român care ocupă din 2012 funcția de primar al Sectorului 3 din București. Confuzia numelui i-a determinat pe mulți să creadă că Robert Negoiță ar fi înrudit cu Liviu Negoiță, lucru neadevărat. El este pe unul dintre primele locuri în lista celor 300 de milionari ai României, întocmită de revista Capital.</t>
+  </si>
+  <si>
+    <t>29.03.2972</t>
+  </si>
+  <si>
+    <t>https://newsweek.ro/resize/0V2z7Yu3MCCH5L5m7dn4BJWs_ylq7hD9T6PweX3AOns/resize:fit:800:600:0/gravity:ce/aHR0cHM6Ly9uZXdzd2Vlay5yby9zdG9yYWdlL3N0b3JhZ2UvbWVkaWEvMjAyMy9GZWJydWFyeS82NzMyYjE1YTI3ZGVjNTQzN2EwMjg0Yjk1MGE1MzJmMy5qcGc.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.knd.ro/media/521/2861/1736/20393799/1/daniel-baluta.jpg</t>
+  </si>
+  <si>
+    <t>Daniel Băluță este un medic stomatolog, primar ales al sectorului 4 din 5 iunie 2016 din partea PSD.</t>
+  </si>
+  <si>
+    <t>14.01.1977</t>
+  </si>
+  <si>
+    <t>Ciprian Ciucu este un om politic român, primar al Sectorului 6 al Bucureștiului. A fost până în 2023 președinte al organizației de București a Partidului Național Liberal.</t>
+  </si>
+  <si>
+    <t>16.03.1978</t>
+  </si>
+  <si>
+    <t>https://infocons.ro/wp-content/uploads/2021/05/Ciprian-Ciucu.jpeg.webp</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>De Mezzo</t>
+  </si>
+  <si>
+    <t>Polițeanu</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Scripcaru</t>
+  </si>
+  <si>
+    <t>Rîmbu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrian </t>
+  </si>
+  <si>
+    <t>Niţă</t>
+  </si>
+  <si>
+    <t>Rus</t>
+  </si>
+  <si>
+    <t>George Scripcaru este un politician român, primar al municipiului Brașov din anul 2004 până în 2020. Este absolvent al Facultății de Educație Fizică și Sport, Universitatea de Vest Timișoara.</t>
+  </si>
+  <si>
+    <t>03.09.1966</t>
+  </si>
+  <si>
+    <t>https://media.b1tv.ro/unsafe/1260x709/smart/filters:contrast(5):format(webp):quality(80)/http://www.b1tv.ro/wp-content/uploads/2024/06/George-Scripcaru.jpg</t>
+  </si>
+  <si>
+    <t>Constantin Toma este un politician român, primar al municipiului Buzău începând cu 2016. Anterior, a fost senator în legislatura 2000–2004 ales în județul Buzău pe listele Partidului Social Democrat (PSD).</t>
+  </si>
+  <si>
+    <t>1.02.1959</t>
+  </si>
+  <si>
+    <t>https://www.thediplomat.ro/wp-content/uploads/2021/02/Constantin-Toma-Primar-Buzau-960x640.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRub6zlICURkyvHn2YyNxh1DCyFRgAv56yBOA&amp;s</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Emil-boc.jpg/1200px-Emil-boc.jpg</t>
+  </si>
+  <si>
+    <t>Emil Boc este un politician român, din 2005 și până în 2012 fost președinte al Partidului Democrat, respectiv al Partidului Democrat Liberal. În perioada 22 decembrie 2008 - 6 februarie 2012 a fost prim-ministru al României. La alegerile locale din anul 2020 a obținut un nou mandat de primar al Clujului, după cele obținute în 2004, 2008, 2012, 2016, respectiv 2020.</t>
+  </si>
+  <si>
+    <t>6.09.1966</t>
+  </si>
+  <si>
+    <t>Vergil Chițac este un ofițer de marină retras și politician român. Până la începutul anului 2016 rectorul Academiei Navale „Mircea cel Bătrân”,[1] iar în 2016 s-a retras din Marină cu grad de contraamiral, s-a înscris în Partidul Național Liberal (PNL) și a candidat la funcția de primar al Constanței la alegerile locale din 2016, fără a fi ales. În decembrie 2016, a fost primul în lista de Senat a aceluiași partid pentru alegerile legislative, și a fost ales senator de Constanța.</t>
+  </si>
+  <si>
+    <t>10.09.1962</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/VergilChitac.jpg/330px-VergilChitac.jpg</t>
+  </si>
+  <si>
+    <t>Árpád-András Antal este un politician de etnie maghiară, deputat în Parlamentul României între 2004-2008, primar al municipiului Sfântu Gheorghe din 2008, din partea partidului UDMR.</t>
+  </si>
+  <si>
+    <t>10.08.1975</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT7kjrqJNAOPtqRVR0Pt4AswGnk39sdz52sPQ&amp;s</t>
+  </si>
+  <si>
+    <t>https://incomod-media.ro/wp-content/uploads/2019/01/daniel-cristian-stan-2.jpg</t>
+  </si>
+  <si>
+    <t>https://www.antena3.ro/thumbs/amp/2018/01/26/lia-olguta-vasilescu-biografie-cine-este-ministrul-propus-al-muncii-426392.jpg</t>
+  </si>
+  <si>
+    <t>Lia Olguța Vasilescu este o politiciană română, membră a Partidului Social Democrat. A deținut funcția de ministru al Muncii și Justiției Sociale în cadrul Guvernului Dăncilă.</t>
+  </si>
+  <si>
+    <t>18.09.1974</t>
+  </si>
+  <si>
+    <t>Ionuț-Florin Pucheanu este primarul municipiului Galați, funcție pe care o deține din luna iunie a anului 2016. Candidat al Partidului Social Democrat, Pucheanu a câștigat în septembrie 2020 al doilea mandat.</t>
+  </si>
+  <si>
+    <t>2.05.1981</t>
+  </si>
+  <si>
+    <t>https://www.bursa.ro/_img/articole/mare/515662.jpg</t>
+  </si>
+  <si>
+    <t>https://primariagiurgiu.ro/storage/2022/01/1.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.adh.reperio.news/image-f/fa98f1fb-d2eb-4b33-bf48-344681c82ecd/index.jpeg?p=a%3D1%26co%3D1.05%26w%3D500%26h%3D250%26r%3Dcover%26f%3Dwebp</t>
+  </si>
+  <si>
+    <t>Marcel Laurențiu Romanescu este un politician român, fost membru al Parlamentului României și actual primar al municipiului Târgu-Jiu după câștigarea alegerilor parțiale din 11 iunie 2017. Marcel Laurențiu Romanescu a fost ales în legislatura 2004-2008 pe listele PD, care a devenit ulterior PD-L. În legislatura 2004-2008, Marcel Laurențiu Romanescu a fost membru în grupurile parlamentare de prietenie cu Republica Coasta de Fildeș, Republica Filipine, Mongolia și Australia.</t>
+  </si>
+  <si>
+    <t>9.10.1975</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRDT62txSwzkbsW_eg-QyZLb-9gKMpPTuIgsA&amp;s</t>
+  </si>
+  <si>
+    <t>Attila Korodi este un om politic român de naționalitate maghiară, care a îndeplinit funcția de ministru al mediului și dezvoltării durabile în Guvernul Tăriceanu, în Guvernul Ungureanu și în Guvernul Ponta (3).</t>
+  </si>
+  <si>
+    <t>23.06.1977</t>
+  </si>
+  <si>
+    <t>https://hd.cotidianul.ro/wp-content/uploads/2024/03/13/lucian-rus1-1000x600.png</t>
+  </si>
+  <si>
+    <t>https://infoialomita.ro/wp-content/uploads/2019/05/dragos-soare-pnl-site-e1600963371371.jpg</t>
+  </si>
+  <si>
+    <t>Dragoș Soare este un politician român, actualmente în funcția de primar al municipiul Slobozia.</t>
+  </si>
+  <si>
+    <t>https://stzdiprodwesteu.blob.core.windows.net/zdiprod/2024/01/361352_245379_stiri_Mihai-Chirica-scaled.jpg</t>
+  </si>
+  <si>
+    <t>Mihai Chirica este un politician român, actualul primar al municipiului Iași.</t>
+  </si>
+  <si>
+    <t>1.09.1971</t>
+  </si>
+  <si>
+    <t>Cătălin Cherecheș este un politician român, aflat în carantină la Rahova, după ce a fost reținut în Germania, în așteptarea extrădării în România.[1] A fost primarul municipiului Baia Mare în perioada 8 mai 2011 – 29 noiembrie 2023.</t>
+  </si>
+  <si>
+    <t>7.07.1978</t>
+  </si>
+  <si>
+    <t>https://cdn.knd.ro/media/521/2861/1726/20367008/1/catalin-chereches-3--crop-1701304874.jpg?width=800&amp;height=610</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQxG0UbugOFiS-3w4z5AeSdZA0YYgsIHcN7Uw&amp;s</t>
+  </si>
+  <si>
+    <t>Zoltán Soós este un istoric, arheolog, și politician român de etnie maghiară, ales primar al orașului Târgu Mureș la alegerile din septembrie 2020.</t>
+  </si>
+  <si>
+    <t>13.08.1974</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRBuSHXFUiJIBo4KS1cqHNBRHAHEw-pJJw2HA&amp;s</t>
+  </si>
+  <si>
+    <t>https://www.ziarpiatraneamt.ro/wp-content/uploads/2024/06/nita-adrian-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>Vasile-Adrian Niță este un politician român, membru al Partidului Social Democrat (PSD), prefect al Județului Neamț (2022 - 2024). În urma alegerilor locale de la 9 iunie 2024, a fost ales primar al municipiului Piatra Neamț.</t>
+  </si>
+  <si>
+    <t>5.12.1980</t>
+  </si>
+  <si>
+    <t>https://cdn.g4media.ro/wp-content/uploads/2019/09/mario-de-mezzo-sursa-fb.jpg</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwNiUyRjEwJTJGMTk5NjE2N18xOTk2/MTY3X3BvbGl0ZWFudS5qcGcmdz0xMjAw/Jmg9NjMwJnpjPTEmaGFzaD1kZDM3N2Q4/YTc3MmYwNGU1MzdhZGU0NzA4NTU1MmNlZg==.thumb.jpg</t>
+  </si>
+  <si>
+    <t>Gábor Kereskényi a fost un om politic român, care ocupă funcția de primar al municipiului Satu Mare din anul 2016.</t>
+  </si>
+  <si>
+    <t>29.01.1980</t>
+  </si>
+  <si>
+    <t>https://locale.realitatea.net/2019/02/kereskenyi.jpg</t>
+  </si>
+  <si>
+    <t>https://salajulliber.ro/wp-content/uploads/2020/09/118369045_3532583060126964_4221967308473482297_n-1.jpg</t>
+  </si>
+  <si>
+    <t>Astrid Cora Fodor este o politiciană de etnie germană din România, care deține din 2014 funcția de primar al municipiului Sibiu (cunoscut în germană ca Hermannstadt de asemenea), aleasă din partea Forumului Democrat al Germanilor din România (FDGR/DFDR).</t>
+  </si>
+  <si>
+    <t>6.11.1953</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/25/Astrid-fodor.jpg/330px-Astrid-fodor.jpg</t>
+  </si>
+  <si>
+    <t>https://sandrinio.ro/wp-content/uploads/2024/01/Vasile-Rimbu.jpg</t>
+  </si>
+  <si>
+    <t>https://reporter24.ro/wp-content/uploads/2020/09/victor-dragusin.jpeg</t>
+  </si>
+  <si>
+    <t>Dominic Samuel Fritz este un politician german, actualmente primar al municipiului Timișoara, candidând din partea Uniunii Salvați România (USR), atunci Alianța 2020 USR-PLUS, cu susținerea adițională a Forumului Democrat al Germanilor din România (FDGR/DFDR), în cadrul alegerilor locale din 2020.[5] De asemenea, Dominic Samuel Fritz este și președintele USR Timiș[6], iar în urma eșecului Alianței Dreapta Unită (ADU) de la alegerile europarlamentare din 2024, a devenit președinte interimar al USR.</t>
+  </si>
+  <si>
+    <t>28.12.1983</t>
+  </si>
+  <si>
+    <t>https://cdn.g4media.ro/wp-content/uploads/2020/07/Dominic-Fritz-slider-.jpg</t>
+  </si>
+  <si>
+    <t>https://dobrogeanews.b-cdn.net/wp-content/uploads/2022/12/stefan-ilie-768x576.jpg</t>
+  </si>
+  <si>
+    <t>Ștefan Ilie este primarul municipiului Tulcea.</t>
+  </si>
+  <si>
+    <t>30.07.1977</t>
+  </si>
+  <si>
+    <t>Vasile Pavăl este un politician român. În 1981 a absolvit Facultatea de Construcții Industriale, Civile și Agricole Iași din cadrul Universității Tehnice Gheorghe Asachi din Iași, fiind repartizat la primăria municipiului Vaslui, ca șef al serviciului de sistematizare, până în anul 1990[4]. În perioada 1991 - 2004 a fost director al societății „Goscom Vaslui”, după care a ocupat funcția de viceprimar, în timpul mandatului primarului Victor Cristea. Din luna iunie 2008, este primar al municipiului Vaslui[5]. La data de 10 iunie 2012 a câștigat un al doilea mandat de primar din partea USL, și apoi a câștigat al treilea mandat în 2016 din partea PSD.</t>
+  </si>
+  <si>
+    <t>20.08.1956</t>
+  </si>
+  <si>
+    <t>https://newsmoldova.ro/wp-content/uploads/2021/03/vasile-paval-primar-vaslui-scaled.jpeg</t>
+  </si>
+  <si>
+    <t>https://image.stirileprotv.ro/media/images/1408x882/Apr2019/62037252.jpg</t>
+  </si>
+  <si>
+    <t>Cristi</t>
+  </si>
+  <si>
+    <t>https://image.stirileprotv.ro/media/images/1920x1080/Mar2019/62026343.jpg</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Botoșani</t>
   </si>
 </sst>
 </file>
@@ -171,10 +1074,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -456,38 +1358,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -498,119 +1415,1440 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" t="s">
+        <v>268</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19" t="s">
+        <v>250</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" t="s">
+        <v>248</v>
+      </c>
+      <c r="G21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" t="s">
+        <v>271</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" t="s">
+        <v>273</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" t="s">
+        <v>278</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F27" t="s">
+        <v>282</v>
+      </c>
+      <c r="G27" t="s">
+        <v>281</v>
+      </c>
+      <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" t="s">
+        <v>285</v>
+      </c>
+      <c r="F29" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" t="s">
+        <v>286</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" t="s">
+        <v>287</v>
+      </c>
+      <c r="F30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>288</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" t="s">
+        <v>290</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" t="s">
+        <v>293</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" t="s">
+        <v>295</v>
+      </c>
+      <c r="F33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" t="s">
+        <v>296</v>
+      </c>
+      <c r="H33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" t="s">
+        <v>210</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" t="s">
+        <v>288</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>302</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s">
+        <v>304</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" t="s">
+        <v>306</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>308</v>
+      </c>
+      <c r="H39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
+      <c r="D40" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" t="s">
+        <v>311</v>
+      </c>
+      <c r="F40" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" t="s">
+        <v>312</v>
+      </c>
+      <c r="H40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" t="s">
+        <v>313</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="H42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" t="s">
+        <v>317</v>
+      </c>
+      <c r="G43" t="s">
+        <v>316</v>
+      </c>
+      <c r="H43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" t="s">
+        <v>318</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" t="s">
+        <v>319</v>
+      </c>
+      <c r="F45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" t="s">
+        <v>320</v>
+      </c>
+      <c r="H45" t="s">
+        <v>167</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" t="s">
+        <v>322</v>
+      </c>
+      <c r="H46" t="s">
+        <v>48</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" t="s">
+        <v>324</v>
+      </c>
+      <c r="F48" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48" t="s">
+        <v>325</v>
+      </c>
+      <c r="H48" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" t="s">
+        <v>328</v>
+      </c>
+      <c r="F49" t="s">
+        <v>327</v>
+      </c>
+      <c r="G49" t="s">
+        <v>329</v>
+      </c>
+      <c r="H49" t="s">
         <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" t="s">
+        <v>226</v>
+      </c>
+      <c r="E50" t="s">
+        <v>330</v>
+      </c>
+      <c r="F50" t="s">
+        <v>332</v>
+      </c>
+      <c r="G50" t="s">
+        <v>331</v>
+      </c>
+      <c r="H50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" t="s">
+        <v>333</v>
+      </c>
+      <c r="H51" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>334</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" t="s">
+        <v>335</v>
+      </c>
+      <c r="H52" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" display="https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwMiUyRjI0JTJGMTkxMzQ0M18xOTEz/NDQzX01hcmNlbC1DaW9sYWN1LW1pcmF0/LmpwZyZ3PTc4MCZoPTQ0MCZoYXNoPWJh/NWRiNzQ2YTUwODJjZjgxNzcyMDdmNjR"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" display="https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwMiUyRjI0JTJGMTkxMzQ0M18xOTEz/NDQzX01hcmNlbC1DaW9sYWN1LW1pcmF0/LmpwZyZ3PTc4MCZoPTQ0MCZoYXNoPWJh/NWRiNzQ2YTUwODJjZjgxNzcyMDdmNjR"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F17"/>
+    <hyperlink ref="F18" r:id="rId10"/>
+    <hyperlink ref="F23" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/politicians.xlsx
+++ b/politicians.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="497">
   <si>
     <t>First Name</t>
   </si>
@@ -46,19 +46,1748 @@
   </si>
   <si>
     <t>Political Party Position</t>
+  </si>
+  <si>
+    <t>Klaus</t>
+  </si>
+  <si>
+    <t>Iohannis</t>
+  </si>
+  <si>
+    <t>Sibiu</t>
+  </si>
+  <si>
+    <t>Președintele României</t>
+  </si>
+  <si>
+    <t>Klaus Werner Iohannis, născut în Sibiu, Regiunea Stalin, Republica Populară Română este un politician român de etnie germană (mai precis sas transilvan), care de la data de 21 decembrie 2014 ocupă funcția de președinte al României.</t>
+  </si>
+  <si>
+    <t>https://cdn.g4media.ro/wp-content/uploads/2023/02/07a32c75-338b-48d0-80d2-6c2885ef7682-e1675958424380.jpg</t>
+  </si>
+  <si>
+    <t>13.06.1959</t>
+  </si>
+  <si>
+    <t>PNL</t>
+  </si>
+  <si>
+    <t>Membru</t>
+  </si>
+  <si>
+    <t>Ludovic</t>
+  </si>
+  <si>
+    <t>Orban</t>
+  </si>
+  <si>
+    <t>Brașov</t>
+  </si>
+  <si>
+    <t>Fost Prim Ministru al României (2019-2020)</t>
+  </si>
+  <si>
+    <t>Ludovic Orban este un politician și inginer român, care a deținut funcția de președinte al Partidului Național Liberal (17 iunie 2017 - 25 septembrie 2021). A fost cel de-al 68-lea prim-ministru al României în perioada 4 noiembrie 2019 – 7 decembrie 2020 (în guvernele Orban 1 și Orban 2). În perioada aprilie 2007 – decembrie 2008 a fost ministru al transporturilor în Guvernul Tăriceanu, Guvernarea sa a fost marcată de pandemia de COVID-19 în România.</t>
+  </si>
+  <si>
+    <t>https://putereaacincea.ro/wp-content/uploads/2022/07/Ludovic-Orban-Foto-ludovicorban.ro_.jpg</t>
+  </si>
+  <si>
+    <t>25.04.1963</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Președinte</t>
+  </si>
+  <si>
+    <t>Viorica</t>
+  </si>
+  <si>
+    <t>Dăncilă</t>
+  </si>
+  <si>
+    <t>București</t>
+  </si>
+  <si>
+    <t>Fost Prim-Ministru al României (2018-2019)</t>
+  </si>
+  <si>
+    <t>Vasilica-Viorica Dăncilă este o politiciană română, fost președinte al Partidului Social Democrat, care a ocupat funcția de cel de-al 67-lea prim-ministru al României de la 29 ianuarie 2018 până la 4 noiembrie 2019. Este prima femeie din istoria României care a deținut această funcție. Din 12 aprilie 2022 este președintele Partidului Națiune Oameni Împreună - prescurtat NOI, în urma primului Congres Național al partidului, organizat în Bucuresti.</t>
+  </si>
+  <si>
+    <t>https://media.capital.ro/wp-content/uploads/2019/06/dancila-2.jpg</t>
+  </si>
+  <si>
+    <t>16.01.1963</t>
+  </si>
+  <si>
+    <t>NOI</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Barna</t>
+  </si>
+  <si>
+    <t>Europarlamentar</t>
+  </si>
+  <si>
+    <t>Ilie Dan Barna este un politician român, vicepremier în Guvernul Florin Cîțu din 23 decembrie 2020 până în 7 septembrie 2021, membru al Camerei Deputaților din 2016 și fost președinte al Uniunii Salvați România (2017-2021), al treilea cel mai mare partid din Parlamentul României.</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTTGMIXdj6DmXN5EZeRMh8G0G2DpE2GeML5P7ZO10SQYg&amp;s</t>
+  </si>
+  <si>
+    <t>10.01.1975</t>
+  </si>
+  <si>
+    <t>USR</t>
+  </si>
+  <si>
+    <t>Marcel</t>
+  </si>
+  <si>
+    <t>Ciolacu</t>
+  </si>
+  <si>
+    <t>Piatra Neamț</t>
+  </si>
+  <si>
+    <t>Prim-Ministru al României</t>
+  </si>
+  <si>
+    <t>Ion-Marcel Ciolacu este un politician social-democrat român, care ocupă din iunie 2023 funcția de prim-ministru al României. Prima funcție publică deținută a fost cea de prefect interimar, în noiembrie–decembrie 2005, după care a devenit, pe rând, director al firmei municipalității Buzău Urbis Serv și viceprimar al municipiului Buzău (2008–2012).</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwMiUyRjI0JTJGMTkxMzQ0M18xOTEz/NDQzX01hcmNlbC1DaW9sYWN1LW1pcmF0/LmpwZyZ3PTc4MCZoPTQ0MCZoYXNoPWJh/NWRiNzQ2YTUwODJjZjgxNzcyMDdmNjRmYzIyNzI3.thumb.jpg</t>
+  </si>
+  <si>
+    <t>28.11.1967</t>
+  </si>
+  <si>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Pleșa</t>
+  </si>
+  <si>
+    <t>Alba Iulia</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Alba Iulia</t>
+  </si>
+  <si>
+    <t>Gabriel Codru Pleșa este primarul municipiului Alba Iulia, din anul 2020, câștigând alegerile alături alianța USR PLUS. Anterior a ocupat funcția de viceprimar, în perioada 2015-2020 și cea de consilier local între 2004-2015.</t>
+  </si>
+  <si>
+    <t>https://alba24.ro/wp-content/uploads/2021/05/gabriel-plesa-1000x600.jpeg</t>
+  </si>
+  <si>
+    <t>11.10.1966</t>
+  </si>
+  <si>
+    <t>Călin</t>
+  </si>
+  <si>
+    <t>Bibarț</t>
+  </si>
+  <si>
+    <t>Arad</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Arad</t>
+  </si>
+  <si>
+    <t>https://storage0.dms.mpinteractiv.ro/media/1/1/1687/18199387/1/bibart.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristian </t>
+  </si>
+  <si>
+    <t>Gentea</t>
+  </si>
+  <si>
+    <t>Pitești</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Pitești</t>
+  </si>
+  <si>
+    <t>Cristian Gentea este un politician român, ales în 2020 primar al municipiului Pitești. A lucrat ca inginer fizician la Institutul de Cercetări Nucleare.[necesită citare]. În 2020, era consilier local, președinte al filialei Partidului Social Democrat Pitești. Cristian Gentea a absolvit Facultatea de Fizică din cadrul Universității din București.</t>
+  </si>
+  <si>
+    <t>https://argestv.ro/wp-content/uploads/2024/03/2-gentea.jpg</t>
+  </si>
+  <si>
+    <t>17.08.1963</t>
+  </si>
+  <si>
+    <t>Lucian</t>
+  </si>
+  <si>
+    <t>Stanciu Viziteu</t>
+  </si>
+  <si>
+    <t>Bacău</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Bacău</t>
+  </si>
+  <si>
+    <t>Lucian-Daniel Stanciu-Viziteu este un deputat român, ales în 2016. Actualmente este primar al municipiului Bacău, funcție câștigată la alegerile locale din 2020.</t>
+  </si>
+  <si>
+    <t>https://lucianstanciuviziteu.ro/wp-content/uploads/2017/02/rsz_145.jpg</t>
+  </si>
+  <si>
+    <t>10.09.1984</t>
+  </si>
+  <si>
+    <t>Florin</t>
+  </si>
+  <si>
+    <t>Birta</t>
+  </si>
+  <si>
+    <t>Oradea</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Oradea</t>
+  </si>
+  <si>
+    <t>Florin-Alin Birta este un politician român, care ocupă funcția de primar al municipiului Oradea din 2020, înlocuindu-l pe Ilie Bolojan din care a devenit președinte al Consiliului Județean Bihor, anterior a fost viceprimar în perioada între anii 2016 până când a fost învestit din funcția de primar în octombrie 2020.</t>
+  </si>
+  <si>
+    <t>https://cdn.ebihoreanul.ro/static/gallery_big/04-birta.jpg</t>
+  </si>
+  <si>
+    <t>25.06.1983</t>
+  </si>
+  <si>
+    <t>Ioan</t>
+  </si>
+  <si>
+    <t>Turc</t>
+  </si>
+  <si>
+    <t>Bistrița</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Bistrița</t>
+  </si>
+  <si>
+    <t>Ioan Turc (n. 28 iunie 1969, Bistrița, România) este un politician român, membru al Parlamentului României în perioada 2007-2008 ca deputat PNL. Ioan Turc a fost validat ca deputat pe data de 19 decembrie 2007 și l-a înlocuit pe deputatul Augustin Zegrean, care a fost ales judecător la Curtea Constituțională. Ioan Turc a fost membru în grupul parlamentar de prietenie cu Republica Lituania. În perioada 2004-2007, Ioan Turc a fost viceprimar al municipiului Bistrița. Timp de 10 ani a fost director al Oficiului Registrului Comerțului de pe lângă Tribunalul Bistrița Năsăud. În urma alegerilor din 27 septembrie 2020, a devenit primarul municipiului Bistrița pentru mandatul 2020-2024.</t>
+  </si>
+  <si>
+    <t>https://timponline.ro/wp-content/uploads/2017/06/ioan-turc-23-iun-17.jpg</t>
+  </si>
+  <si>
+    <t>28.06.1969</t>
+  </si>
+  <si>
+    <t>Cosmin</t>
+  </si>
+  <si>
+    <t>Andrei</t>
+  </si>
+  <si>
+    <t>Botoșani</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Botoșani</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwMiUyRjAyJTJGMTg5NDU4M18xODk0/NTgzX2Nvc21pbi1hbmRyZWktMS5qcGVn/Jnc9NzgwJmg9NDQwJmhhc2g9YTczY2M0/NGQ5MWE0Yjc3Y2RjOTI1OTg5MGM2ZTIwZmU=.thumb.jpg</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Scripcaru</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Brașov</t>
+  </si>
+  <si>
+    <t>George Scripcaru este un politician român, primar al municipiului Brașov din anul 2004 până în 2020. Este absolvent al Facultății de Educație Fizică și Sport, Universitatea de Vest Timișoara.</t>
+  </si>
+  <si>
+    <t>https://media.b1tv.ro/unsafe/1260x709/smart/filters:contrast(5):format(webp):quality(80)/http://www.b1tv.ro/wp-content/uploads/2024/06/George-Scripcaru.jpg</t>
+  </si>
+  <si>
+    <t>03.09.1966</t>
+  </si>
+  <si>
+    <t>Marian</t>
+  </si>
+  <si>
+    <t>Dragomir</t>
+  </si>
+  <si>
+    <t>Brăila</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Brăila</t>
+  </si>
+  <si>
+    <t>Viorel Marian Dragomir este un fost deputat român, ales în 2012 din partea Partidului Social Democrat. În prezent este primarul municipiului Brăila.</t>
+  </si>
+  <si>
+    <t>https://candidatiibrailei.wordpress.com/wp-content/uploads/2016/04/marian-dragomir.jpg?w=960&amp;h=800&amp;crop=1</t>
+  </si>
+  <si>
+    <t>16.06.1975</t>
+  </si>
+  <si>
+    <t>Nicușor</t>
+  </si>
+  <si>
+    <t>Primar General al Bucureștiului</t>
+  </si>
+  <si>
+    <t>Nicușor Dan este un activist civic și matematician român, inițiator și fost președinte al partidului Uniunea Salvați România (USR), candidat pentru funcția de primar general al Bucureștiului la alegerile din iunie 2012 și alegerile locale din 2016, consilier general al municipiului București în 2016 și, din decembrie 2016, deputat de București. La alegerile locale din 2020 a fost ales în funcția de primar general al capitalei cu 42,8% din voturi, iar la alegerile locale din 2024 a fost reales cu 46,9%.</t>
+  </si>
+  <si>
+    <t>https://cdn.knd.ro/media/521/2863/1662/20157448/1/nicusor-dan.jpg</t>
+  </si>
+  <si>
+    <t>20.01.2969</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George </t>
+  </si>
+  <si>
+    <t>Tuță</t>
+  </si>
+  <si>
+    <t>București Sector 1</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 1</t>
+  </si>
+  <si>
+    <t>George-Cristian Tuță este un om politic român, membru al Parlamentului României și Chestor al Camerei Deputaților din decembrie 2020[1]. A fost ales membru al Biroului Executiv al Partidului Național Liberal în 2021, iar în cadrul Camerei Deputaților activează în Comisia pentru Afaceri Europene și în Comisia pentru Industrie și Servicii. Din decembrie 2023, este președinte interimar al organizației PNL Sector 1.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA2dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjAl/MkYxMiUyRjI3JTJGMTI2ODYyM18xMjY4/NjIzX2dlb3JnZS10dXRhLmpwZyZ3PTc4/MCZoPTQ0MCZoYXNoPTIxNjRjYzNhZTJmZGZiYjM2Zjc2MWUxMzMyMzUwYWI0.thumb.jpg</t>
+  </si>
+  <si>
+    <t>8.08.1984</t>
+  </si>
+  <si>
+    <t>Rareș</t>
+  </si>
+  <si>
+    <t>Mihaiu Hpincă</t>
+  </si>
+  <si>
+    <t>București Sector 2</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 2</t>
+  </si>
+  <si>
+    <t>Rareș Hopincă  este un politician român, membru al Partidului Social Democrat începând cu anul 2009. Acesta a deținut funcția de Prefect al Capitalei în perioada iulie 2023-aprilie 2024. În aprilie 2024, Hopincă și-a depus demisia din funcția de prefect și a anunțat candidatura la Primăria Sectorului 2 din București.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f4/Rare%C8%99_Hopinc%C4%83.jpg/1200px-Rare%C8%99_Hopinc%C4%83.jpg</t>
+  </si>
+  <si>
+    <t>29.08.1984</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Negoiță</t>
+  </si>
+  <si>
+    <t>București Sector 3</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 3</t>
+  </si>
+  <si>
+    <t>Robert Sorin Negoiță este un politician și om de afaceri român care ocupă din 2012 funcția de primar al Sectorului 3 din București. Confuzia numelui i-a determinat pe mulți să creadă că Robert Negoiță ar fi înrudit cu Liviu Negoiță, lucru neadevărat. El este pe unul dintre primele locuri în lista celor 300 de milionari ai României, întocmită de revista Capital.</t>
+  </si>
+  <si>
+    <t>https://newsweek.ro/resize/0V2z7Yu3MCCH5L5m7dn4BJWs_ylq7hD9T6PweX3AOns/resize:fit:800:600:0/gravity:ce/aHR0cHM6Ly9uZXdzd2Vlay5yby9zdG9yYWdlL3N0b3JhZ2UvbWVkaWEvMjAyMy9GZWJydWFyeS82NzMyYjE1YTI3ZGVjNTQzN2EwMjg0Yjk1MGE1MzJmMy5qcGc.jpg</t>
+  </si>
+  <si>
+    <t>29.03.2972</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Băluță</t>
+  </si>
+  <si>
+    <t>București Sector 4</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 4</t>
+  </si>
+  <si>
+    <t>Daniel Băluță este un medic stomatolog, primar ales al sectorului 4 din 5 iunie 2016 din partea PSD.</t>
+  </si>
+  <si>
+    <t>https://cdn.knd.ro/media/521/2861/1736/20393799/1/daniel-baluta.jpg</t>
+  </si>
+  <si>
+    <t>14.01.1977</t>
+  </si>
+  <si>
+    <t>Vlad</t>
+  </si>
+  <si>
+    <t>Popescu Piedone</t>
+  </si>
+  <si>
+    <t>București Sector 5</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 5</t>
+  </si>
+  <si>
+    <t>Vlad Popescu Piedone (n. 16 septembrie 1989, București, România) este un primar al sectorului 5 și fost deputat român.</t>
+  </si>
+  <si>
+    <t>https://pusl.ro/wp-content/uploads/2024/03/412836927_778862074253936_2832879109907468926_n-e1711727410590.jpg</t>
+  </si>
+  <si>
+    <t>16.09.1989</t>
+  </si>
+  <si>
+    <t>Ciprian</t>
+  </si>
+  <si>
+    <t>Ciucu</t>
+  </si>
+  <si>
+    <t>București Sector 6</t>
+  </si>
+  <si>
+    <t>Primar al Sectorului 6</t>
+  </si>
+  <si>
+    <t>Ciprian Ciucu este un om politic român, primar al Sectorului 6 al Bucureștiului. A fost până în 2023 președinte al organizației de București a Partidului Național Liberal.</t>
+  </si>
+  <si>
+    <t>https://infocons.ro/wp-content/uploads/2021/05/Ciprian-Ciucu.jpeg.webp</t>
+  </si>
+  <si>
+    <t>16.03.1978</t>
+  </si>
+  <si>
+    <t>Constantin</t>
+  </si>
+  <si>
+    <t>Toma</t>
+  </si>
+  <si>
+    <t>Buzău</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Buzău</t>
+  </si>
+  <si>
+    <t>Constantin Toma este un politician român, primar al municipiului Buzău începând cu 2016. Anterior, a fost senator în legislatura 2000–2004 ales în județul Buzău pe listele Partidului Social Democrat (PSD).</t>
+  </si>
+  <si>
+    <t>https://www.thediplomat.ro/wp-content/uploads/2021/02/Constantin-Toma-Primar-Buzau-960x640.jpg</t>
+  </si>
+  <si>
+    <t>1.02.1959</t>
+  </si>
+  <si>
+    <t>Popa</t>
+  </si>
+  <si>
+    <t>Reșița</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Reșița</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRub6zlICURkyvHn2YyNxh1DCyFRgAv56yBOA&amp;s</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Boc</t>
+  </si>
+  <si>
+    <t>Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>Emil Boc este un politician român, din 2005 și până în 2012 fost președinte al Partidului Democrat, respectiv al Partidului Democrat Liberal. În perioada 22 decembrie 2008 - 6 februarie 2012 a fost prim-ministru al României. La alegerile locale din anul 2020 a obținut un nou mandat de primar al Clujului, după cele obținute în 2004, 2008, 2012, 2016, respectiv 2020.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Emil-boc.jpg/1200px-Emil-boc.jpg</t>
+  </si>
+  <si>
+    <t>6.09.1966</t>
+  </si>
+  <si>
+    <t>Vergil</t>
+  </si>
+  <si>
+    <t>Chițac</t>
+  </si>
+  <si>
+    <t>Constanța</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Constanța</t>
+  </si>
+  <si>
+    <t>Vergil Chițac este un ofițer de marină retras și politician român. Până la începutul anului 2016 rectorul Academiei Navale „Mircea cel Bătrân”,[1] iar în 2016 s-a retras din Marină cu grad de contraamiral, s-a înscris în Partidul Național Liberal (PNL) și a candidat la funcția de primar al Constanței la alegerile locale din 2016, fără a fi ales. În decembrie 2016, a fost primul în lista de Senat a aceluiași partid pentru alegerile legislative, și a fost ales senator de Constanța.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/VergilChitac.jpg/330px-VergilChitac.jpg</t>
+  </si>
+  <si>
+    <t>10.09.1962</t>
+  </si>
+  <si>
+    <t>Antal</t>
+  </si>
+  <si>
+    <t>Arpad</t>
+  </si>
+  <si>
+    <t>Sfântu Gheorghe</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Sfântu Gheorghe</t>
+  </si>
+  <si>
+    <t>Árpád-András Antal este un politician de etnie maghiară, deputat în Parlamentul României între 2004-2008, primar al municipiului Sfântu Gheorghe din 2008, din partea partidului UDMR.</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT7kjrqJNAOPtqRVR0Pt4AswGnk39sdz52sPQ&amp;s</t>
+  </si>
+  <si>
+    <t>10.08.1975</t>
+  </si>
+  <si>
+    <t>UDMR</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Târgoviște</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Târgoviște</t>
+  </si>
+  <si>
+    <t>https://incomod-media.ro/wp-content/uploads/2019/01/daniel-cristian-stan-2.jpg</t>
+  </si>
+  <si>
+    <t>Olguța</t>
+  </si>
+  <si>
+    <t>Vasilescu</t>
+  </si>
+  <si>
+    <t>Craiova</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Craiova</t>
+  </si>
+  <si>
+    <t>Lia Olguța Vasilescu este o politiciană română, membră a Partidului Social Democrat. A deținut funcția de ministru al Muncii și Justiției Sociale în cadrul Guvernului Dăncilă.</t>
+  </si>
+  <si>
+    <t>https://www.antena3.ro/thumbs/amp/2018/01/26/lia-olguta-vasilescu-biografie-cine-este-ministrul-propus-al-muncii-426392.jpg</t>
+  </si>
+  <si>
+    <t>18.09.1974</t>
+  </si>
+  <si>
+    <t>Ionuț</t>
+  </si>
+  <si>
+    <t>Pucheanu</t>
+  </si>
+  <si>
+    <t>Galați</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Galați</t>
+  </si>
+  <si>
+    <t>Ionuț-Florin Pucheanu este primarul municipiului Galați, funcție pe care o deține din luna iunie a anului 2016. Candidat al Partidului Social Democrat, Pucheanu a câștigat în septembrie 2020 al doilea mandat.</t>
+  </si>
+  <si>
+    <t>https://www.bursa.ro/_img/articole/mare/515662.jpg</t>
+  </si>
+  <si>
+    <t>2.05.1981</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Anghelescu</t>
+  </si>
+  <si>
+    <t>Giurgiu</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Giurgiu</t>
+  </si>
+  <si>
+    <t>https://primariagiurgiu.ro/storage/2022/01/1.jpg</t>
+  </si>
+  <si>
+    <t>Romanescu</t>
+  </si>
+  <si>
+    <t>Târgu Jiu</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Târgu Jiu</t>
+  </si>
+  <si>
+    <t>Marcel Laurențiu Romanescu este un politician român, fost membru al Parlamentului României și actual primar al municipiului Târgu-Jiu după câștigarea alegerilor parțiale din 11 iunie 2017. Marcel Laurențiu Romanescu a fost ales în legislatura 2004-2008 pe listele PD, care a devenit ulterior PD-L. În legislatura 2004-2008, Marcel Laurențiu Romanescu a fost membru în grupurile parlamentare de prietenie cu Republica Coasta de Fildeș, Republica Filipine, Mongolia și Australia.</t>
+  </si>
+  <si>
+    <t>https://cdn.adh.reperio.news/image-f/fa98f1fb-d2eb-4b33-bf48-344681c82ecd/index.jpeg?p=a%3D1%26co%3D1.05%26w%3D500%26h%3D250%26r%3Dcover%26f%3Dwebp</t>
+  </si>
+  <si>
+    <t>9.10.1975</t>
+  </si>
+  <si>
+    <t>Korodi</t>
+  </si>
+  <si>
+    <t>Attila</t>
+  </si>
+  <si>
+    <t>Miercurea Ciuc</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Miercurea Ciuc</t>
+  </si>
+  <si>
+    <t>Attila Korodi este un om politic român de naționalitate maghiară, care a îndeplinit funcția de ministru al mediului și dezvoltării durabile în Guvernul Tăriceanu, în Guvernul Ungureanu și în Guvernul Ponta (3).</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRDT62txSwzkbsW_eg-QyZLb-9gKMpPTuIgsA&amp;s</t>
+  </si>
+  <si>
+    <t>23.06.1977</t>
+  </si>
+  <si>
+    <t>Rus</t>
+  </si>
+  <si>
+    <t>Deva</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Deva</t>
+  </si>
+  <si>
+    <t>https://hd.cotidianul.ro/wp-content/uploads/2024/03/13/lucian-rus1-1000x600.png</t>
+  </si>
+  <si>
+    <t>Dragoș</t>
+  </si>
+  <si>
+    <t>Soare</t>
+  </si>
+  <si>
+    <t>Slobozia</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Slobozia</t>
+  </si>
+  <si>
+    <t>Dragoș Soare este un politician român, actualmente în funcția de primar al municipiul Slobozia.</t>
+  </si>
+  <si>
+    <t>https://infoialomita.ro/wp-content/uploads/2019/05/dragos-soare-pnl-site-e1600963371371.jpg</t>
+  </si>
+  <si>
+    <t>Mihai</t>
+  </si>
+  <si>
+    <t>Chirica</t>
+  </si>
+  <si>
+    <t>Iași</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Iași</t>
+  </si>
+  <si>
+    <t>Mihai Chirica este un politician român, actualul primar al municipiului Iași.</t>
+  </si>
+  <si>
+    <t>https://stzdiprodwesteu.blob.core.windows.net/zdiprod/2024/01/361352_245379_stiri_Mihai-Chirica-scaled.jpg</t>
+  </si>
+  <si>
+    <t>1.09.1971</t>
+  </si>
+  <si>
+    <t>Cătălin</t>
+  </si>
+  <si>
+    <t>Cherecheș</t>
+  </si>
+  <si>
+    <t>Baia Mare</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Baia Mare</t>
+  </si>
+  <si>
+    <t>Cătălin Cherecheș este un politician român, aflat în carantină la Rahova, după ce a fost reținut în Germania, în așteptarea extrădării în România.[1] A fost primarul municipiului Baia Mare în perioada 8 mai 2011 – 29 noiembrie 2023.</t>
+  </si>
+  <si>
+    <t>https://cdn.knd.ro/media/521/2861/1726/20367008/1/catalin-chereches-3--crop-1701304874.jpg?width=800&amp;height=610</t>
+  </si>
+  <si>
+    <t>7.07.1978</t>
+  </si>
+  <si>
+    <t>Marius</t>
+  </si>
+  <si>
+    <t>Screciu</t>
+  </si>
+  <si>
+    <t>Drobeta-Turnu Severin</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Drobeta-Turnu Severin</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQxG0UbugOFiS-3w4z5AeSdZA0YYgsIHcN7Uw&amp;s</t>
+  </si>
+  <si>
+    <t>Soos</t>
+  </si>
+  <si>
+    <t>Zoltan</t>
+  </si>
+  <si>
+    <t>Târgu Mureș</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Târgu Mureș</t>
+  </si>
+  <si>
+    <t>Zoltán Soós este un istoric, arheolog, și politician român de etnie maghiară, ales primar al orașului Târgu Mureș la alegerile din septembrie 2020.</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRBuSHXFUiJIBo4KS1cqHNBRHAHEw-pJJw2HA&amp;s</t>
+  </si>
+  <si>
+    <t>13.08.1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrian </t>
+  </si>
+  <si>
+    <t>Niţă</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Piatra Neamț</t>
+  </si>
+  <si>
+    <t>Vasile-Adrian Niță este un politician român, membru al Partidului Social Democrat (PSD), prefect al Județului Neamț (2022 - 2024). În urma alegerilor locale de la 9 iunie 2024, a fost ales primar al municipiului Piatra Neamț.</t>
+  </si>
+  <si>
+    <t>https://www.ziarpiatraneamt.ro/wp-content/uploads/2024/06/nita-adrian-1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>5.12.1980</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>De Mezzo</t>
+  </si>
+  <si>
+    <t>Slatina</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Slatina</t>
+  </si>
+  <si>
+    <t>https://cdn.g4media.ro/wp-content/uploads/2019/09/mario-de-mezzo-sursa-fb.jpg</t>
+  </si>
+  <si>
+    <t>Polițeanu</t>
+  </si>
+  <si>
+    <t>Ploiești</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Ploiești</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwNiUyRjEwJTJGMTk5NjE2N18xOTk2/MTY3X3BvbGl0ZWFudS5qcGcmdz0xMjAw/Jmg9NjMwJnpjPTEmaGFzaD1kZDM3N2Q4/YTc3MmYwNGU1MzdhZGU0NzA4NTU1MmNlZg==.thumb.jpg</t>
+  </si>
+  <si>
+    <t>Kereskenyi</t>
+  </si>
+  <si>
+    <t>Gabor</t>
+  </si>
+  <si>
+    <t>Satu Mare</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Satu Mare</t>
+  </si>
+  <si>
+    <t>Gábor Kereskényi a fost un om politic român, care ocupă funcția de primar al municipiului Satu Mare din anul 2016.</t>
+  </si>
+  <si>
+    <t>https://locale.realitatea.net/2019/02/kereskenyi.jpg</t>
+  </si>
+  <si>
+    <t>29.01.1980</t>
+  </si>
+  <si>
+    <t>Ionel</t>
+  </si>
+  <si>
+    <t>Ciunt</t>
+  </si>
+  <si>
+    <t>Zalău</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Zalău</t>
+  </si>
+  <si>
+    <t>https://salajulliber.ro/wp-content/uploads/2020/09/118369045_3532583060126964_4221967308473482297_n-1.jpg</t>
+  </si>
+  <si>
+    <t>Astrid</t>
+  </si>
+  <si>
+    <t>Fodor</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Sibiu</t>
+  </si>
+  <si>
+    <t>Astrid Cora Fodor este o politiciană de etnie germană din România, care deține din 2014 funcția de primar al municipiului Sibiu (cunoscut în germană ca Hermannstadt de asemenea), aleasă din partea Forumului Democrat al Germanilor din România (FDGR/DFDR).</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/25/Astrid-fodor.jpg/330px-Astrid-fodor.jpg</t>
+  </si>
+  <si>
+    <t>6.11.1953</t>
+  </si>
+  <si>
+    <t>FDGR</t>
+  </si>
+  <si>
+    <t>Vasile</t>
+  </si>
+  <si>
+    <t>Rîmbu</t>
+  </si>
+  <si>
+    <t>Suceava</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Suceava</t>
+  </si>
+  <si>
+    <t>https://sandrinio.ro/wp-content/uploads/2024/01/Vasile-Rimbu.jpg</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Drăgușin</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Alexandria</t>
+  </si>
+  <si>
+    <t>https://reporter24.ro/wp-content/uploads/2020/09/victor-dragusin.jpeg</t>
+  </si>
+  <si>
+    <t>Dominic</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t>Timișoara</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Timișoara</t>
+  </si>
+  <si>
+    <t>Dominic Samuel Fritz este un politician german, actualmente primar al municipiului Timișoara, candidând din partea Uniunii Salvați România (USR), atunci Alianța 2020 USR-PLUS, cu susținerea adițională a Forumului Democrat al Germanilor din România (FDGR/DFDR), în cadrul alegerilor locale din 2020.[5] De asemenea, Dominic Samuel Fritz este și președintele USR Timiș[6], iar în urma eșecului Alianței Dreapta Unită (ADU) de la alegerile europarlamentare din 2024, a devenit președinte interimar al USR.</t>
+  </si>
+  <si>
+    <t>https://cdn.g4media.ro/wp-content/uploads/2020/07/Dominic-Fritz-slider-.jpg</t>
+  </si>
+  <si>
+    <t>28.12.1983</t>
+  </si>
+  <si>
+    <t>Ștefan</t>
+  </si>
+  <si>
+    <t>Ilie</t>
+  </si>
+  <si>
+    <t>Tulcea</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Tulcea</t>
+  </si>
+  <si>
+    <t>Ștefan Ilie este primarul municipiului Tulcea.</t>
+  </si>
+  <si>
+    <t>https://dobrogeanews.b-cdn.net/wp-content/uploads/2022/12/stefan-ilie-768x576.jpg</t>
+  </si>
+  <si>
+    <t>30.07.1977</t>
+  </si>
+  <si>
+    <t>Pavăl</t>
+  </si>
+  <si>
+    <t>Vaslui</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Vaslui</t>
+  </si>
+  <si>
+    <t>Vasile Pavăl este un politician român. În 1981 a absolvit Facultatea de Construcții Industriale, Civile și Agricole Iași din cadrul Universității Tehnice Gheorghe Asachi din Iași, fiind repartizat la primăria municipiului Vaslui, ca șef al serviciului de sistematizare, până în anul 1990[4]. În perioada 1991 - 2004 a fost director al societății „Goscom Vaslui”, după care a ocupat funcția de viceprimar, în timpul mandatului primarului Victor Cristea. Din luna iunie 2008, este primar al municipiului Vaslui[5]. La data de 10 iunie 2012 a câștigat un al doilea mandat de primar din partea USL, și apoi a câștigat al treilea mandat în 2016 din partea PSD.</t>
+  </si>
+  <si>
+    <t>https://newsmoldova.ro/wp-content/uploads/2021/03/vasile-paval-primar-vaslui-scaled.jpeg</t>
+  </si>
+  <si>
+    <t>20.08.1956</t>
+  </si>
+  <si>
+    <t>Mircea</t>
+  </si>
+  <si>
+    <t>Gutău</t>
+  </si>
+  <si>
+    <t>Râmnicu Vâlcea</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Râmnicu Vâlcea</t>
+  </si>
+  <si>
+    <t>https://image.stirileprotv.ro/media/images/1408x882/Apr2019/62037252.jpg</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>Cristi</t>
+  </si>
+  <si>
+    <t>Misăilă</t>
+  </si>
+  <si>
+    <t>Focșani</t>
+  </si>
+  <si>
+    <t>Primar al municipiului Focșani</t>
+  </si>
+  <si>
+    <t>https://image.stirileprotv.ro/media/images/1920x1080/Mar2019/62026343.jpg</t>
+  </si>
+  <si>
+    <t>Nicolae</t>
+  </si>
+  <si>
+    <t>Ciucă</t>
+  </si>
+  <si>
+    <t>Prim-ministru</t>
+  </si>
+  <si>
+    <t>Nicolae Ionel Ciucă  este un general român în rezervă și politician. Între 25 noiembrie 2021 și 12 iunie 2023, Nicolae Ciucă a îndeplinit funcția de prim-ministru al României (în cadrul Guvernului Nicolae Ciucă). De asemenea, a ocupat funcția de ministru al Apărării Naționale în cadrul guvernelor conduse de Ludovic Orban și Florin Cîțu.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjIl/MkYwOSUyRjExJTJGMTU4MDU5N18xNTgw/NTk3X2NpdWNhLWZiLmpwZyZ3PTc4MCZo/PTQ0MCZoYXNoPTMzMmJhMzA5OWI2MTljNWJmMmEwZTU1ZGZhNzBlYmQy.thumb.jpg</t>
+  </si>
+  <si>
+    <t>7.02.1967</t>
+  </si>
+  <si>
+    <t>Simion</t>
+  </si>
+  <si>
+    <t>Deputat</t>
+  </si>
+  <si>
+    <t>George Simion este un activist civic și politician conservator și de dreapta român, ales deputat în legislatura 2020-2024. Acesta militează pentru Unirea României cu Republica Moldova. Este fondator al Platformei Unioniste Acțiunea 2012 și al Alianței pentru Centenar.</t>
+  </si>
+  <si>
+    <t>https://www.puterea.ro/wp-content/uploads/2024/07/George-Simion-AUR-e1717059243154.jpg</t>
+  </si>
+  <si>
+    <t>21.09.1986</t>
+  </si>
+  <si>
+    <t>AUR</t>
+  </si>
+  <si>
+    <t>Copreședinte</t>
+  </si>
+  <si>
+    <t>Drulă</t>
+  </si>
+  <si>
+    <t>Cătălin Drulă este un politician român și inginer software care, din 10 iulie 2022 până pe 10 iunie 2024, a ocupat funcția de președinte al partidului politic USR. Este deputat al circumscripției Timiș începând cu anul 2016.</t>
+  </si>
+  <si>
+    <t>https://spotmedia.ro/wp-content/uploads/2023/05/Catalin-Drula-1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>2.02.1981</t>
+  </si>
+  <si>
+    <t>Fost Președinte</t>
+  </si>
+  <si>
+    <t>Kelemen</t>
+  </si>
+  <si>
+    <t>Hunor</t>
+  </si>
+  <si>
+    <t>Dr. Hunor Kelemen este un politician român de etnie maghiară din România, ales începând cu legislatura 2000-2004 deputat de Harghita din partea UDMR. Hunor Kelemen a candidat din partea UDMR la alegerile prezidențiale din 2009, obținând 3,83% din voturi.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjMl/MkYwNCUyRjI2JTJGMTcxOTYzNF8xNzE5/NjM0X0tlbGVtZW4tSHVub3IuanBnJnc9/NzgwJmg9NDQwJmhhc2g9MjM0ZDU1NjJmMTU3YjdmOTVkM2I2ODY1M2Y0MzI1NTE=.thumb.jpg</t>
+  </si>
+  <si>
+    <t>18.10.1967</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Lasconi</t>
+  </si>
+  <si>
+    <t>Câmpulung</t>
+  </si>
+  <si>
+    <t>Primar</t>
+  </si>
+  <si>
+    <t>Elena-Valerica Lasconi este o politiciană română care, la data de 26 iunie 2024, a câștigat alegerile interne în Uniunea Salvați România (USR) pentru președinția formațiunii politice. De asemenea, exercită funcția de primar al municipiului Câmpulung din județul Argeș, în urma alegerilor locale din 2020, respectiv 2024.Elena Lasconi a deschis pentru scurt timp lista candidaților Uniunii Salvați România (USR), în cadrul Alianței Dreapta Unită (ADU), la alegerile europarlamentare din 2024, poziție la care a renunțat ulterior în urma cererii fostului președinte al partidului, Cătălin Drulă. Anterior, a lucrat ca prezentatoare TV, reporteriță și corespondentă la Pro TV în perioada 1995–2019. A candidat de asemenea în cadrul Uniunii Salvați România (USR) pentru candidatul partidului în cadrul alegerilor prezidențiale din 2024, câștigând aceste alegeri interne.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwMSUyRjI4JTJGMTg5MDIwNF8xODkw/MjA0X0lEMjM1MDA3X0lOUVVBTV9QaG90/b3NfR2VvcmdlX0NhbGluLmpwZyZ3PTc4/MCZoPTQ0MCZoYXNoPTI2YjVjMzliMmNhZGUxMjllYjkwMTE3ZGM3ZDkxOTdl.thumb.jpg</t>
+  </si>
+  <si>
+    <t>22.04.1972</t>
+  </si>
+  <si>
+    <t>Dîncu</t>
+  </si>
+  <si>
+    <t>Senator</t>
+  </si>
+  <si>
+    <t>Vasile Sebastian Dîncu este un politician român, de profesie sociolog. În legislatura 2004-2008 a fost membru al Senatului României, ales în județul Cluj pe listele partidului PSD. În guvernul condus de Adrian Năstase - Guvernul Adrian Năstase, a fost ministru al informațiilor publice.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwMiUyRjAyJTJGMTg5NDcyNV8xODk0/NzI1X3Zhc2lsZS1kaW5jdS1mb3RvLWdv/di1yby5qcGcmdz0zODAmaD0yMTQmaGFz/aD05N2FiYWE2NzlmNzU4M2FhYzIxZWU4OTU4MzVkZjNiOQ==.thumb.jpg</t>
+  </si>
+  <si>
+    <t>26.11.1961</t>
+  </si>
+  <si>
+    <t>Președinte Consiliul Național</t>
+  </si>
+  <si>
+    <t>Alina</t>
+  </si>
+  <si>
+    <t>Gorghiu</t>
+  </si>
+  <si>
+    <t>Alina-Ștefania Gorghiu este un avocat și om politic român, fost președinte al Partidului Național Liberal. Până în anul 2004 a îndeplinit funcția de consilier local pentru București, sector 5. La alegerile legislative din 2008 a obținut un loc de parlamentar în Camera Deputaților în colegiul 22 din București.</t>
+  </si>
+  <si>
+    <t>https://www.oradesibiu.ro/wp-content/uploads/2016/12/alina-gorghiu_PNL.jpg</t>
+  </si>
+  <si>
+    <t>16.09.1968</t>
+  </si>
+  <si>
+    <t>Vicepreședinte</t>
+  </si>
+  <si>
+    <t>Dacian</t>
+  </si>
+  <si>
+    <t>Cioloș</t>
+  </si>
+  <si>
+    <t>Dacian Julien Cioloș este un politician și inginer horticultor român, fost cel de-al 64-lea prim-ministru al României, fost Comisar European pentru Agricultură și Dezvoltare Rurală, fost lider al grupului Renew Europe din Parlamentul European și fost președinte al USR.</t>
+  </si>
+  <si>
+    <t>https://hotnews.ro/wp-content/uploads/2024/04/image-2016-07-19-21169485-41-dacian-ciolos-16.jpg?w=800&amp;h=533&amp;crop=1</t>
+  </si>
+  <si>
+    <t>27.07.1969</t>
+  </si>
+  <si>
+    <t>REPER</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Firea</t>
+  </si>
+  <si>
+    <t>Gabriela Firea este o politiciană și fostă jurnalistă română care a fost ministru al Familiei și Egalității de Șanse în guvernul Nicolae Ciucă și guvernul Marcel Ciolacu din 25 noiembrie 2021 până pe 14 iulie 2023.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwMiUyRjA3JTJGMTg5ODI2MF8xODk4/MjYwX2ZpcmVhLmpwZyZ3PTc4MCZoPTQ0/MCZoYXNoPTUxYTc0MGU0YjRiYWE1MGNkNzRiYmQ5NjJlM2M0ZGUx.thumb.jpg</t>
+  </si>
+  <si>
+    <t>13.07.1972</t>
+  </si>
+  <si>
+    <t>Președinte filiala București</t>
+  </si>
+  <si>
+    <t>Eugen</t>
+  </si>
+  <si>
+    <t>Tomac</t>
+  </si>
+  <si>
+    <t>Președinte PMP</t>
+  </si>
+  <si>
+    <t>Eugen Tomac este un politician, istoric și jurnalist român. Din 2019 este deputat european în Parlamentul European. A avut două mandate de deputat în Parlamentul României. Este președinte al Partidului Mișcarea Populară din 2022. A mai ocupat funcția în perioada 2015-2020.</t>
+  </si>
+  <si>
+    <t>https://www.caleaeuropeana.ro/wp-content/uploads/2020/10/WhatsApp-Image-2020-10-14-at-12.10.32.jpeg</t>
+  </si>
+  <si>
+    <t>24.06.1981</t>
+  </si>
+  <si>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>Ponta</t>
+  </si>
+  <si>
+    <t>Fost prim-ministru</t>
+  </si>
+  <si>
+    <t>Victor-Viorel Ponta este un om politic român. Este în prezent co-fondator și președinte al Partidului PRO Romania, alături de Daniel Constantin. A deținut funcția de cel de-al 63-lea prim-ministru al României din 7 mai 2012 până la demisia sa în 4 noiembrie 2015.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA3dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMTcl/MkYwNSUyRjEyJTJGNzc1NzQwXzc3NTc0/MF9wb250YS1wcm9maWwtZmIuanBnJnc9/ODAwJmhhc2g9ZTdjZjY3MjA5NjhhYjZlNzJkYzlmZmRkNmM1N2FjNWY=.thumb.jpg</t>
+  </si>
+  <si>
+    <t>20.09.1972</t>
+  </si>
+  <si>
+    <t>Voiculescu</t>
+  </si>
+  <si>
+    <t>Vlad Vasile Voiculescu este un politician și economist român, fost ministru al Sănătății în Guvernul Florin Cîțu și în Guvernul Dacian Cioloș.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjMl/MkYxMSUyRjIzJTJGMTg0NjcyOV8xODQ2/NzI5X3ZsYWQtdm9pY3VsZXNjdS5qcGcm/dz03ODAmaD00NDAmaGFzaD05NWQ1MmYx/NGQyNDM5Yzg2YmNmMTU1NTQxZDY1ZWU2NA==.thumb.jpg</t>
+  </si>
+  <si>
+    <t>06.09.1983</t>
+  </si>
+  <si>
+    <t>Bogdan</t>
+  </si>
+  <si>
+    <t>Rareș Bogdan este un jurnalist de televiziune și om politic din România. După ce a activat în televiziune, în 2019 s-a înscris în Partidul Național Liberal și a fost pus cap de listă între candidații la alegerile europarlamentare din 2019.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjMl/MkYxMiUyRjA1JTJGMTg1NDI3MV8xODU0/MjcxX3JhcmVzYm9nZGFuLXByb2ZpbWVk/aWEuanBnJnc9NzgwJmg9NDQwJmhhc2g9/YmJmMDIxZjFmM2FiNGEzOGViZjRlZTg3NThlZWNhYzk=.thumb.jpg</t>
+  </si>
+  <si>
+    <t>17.09.1974</t>
+  </si>
+  <si>
+    <t>Prim-vicepreședinte</t>
+  </si>
+  <si>
+    <t>Bolojan</t>
+  </si>
+  <si>
+    <t>Președinte CJ Bihor</t>
+  </si>
+  <si>
+    <t>Ilie Gavril Bolojan este un politician român, fost primar al orașului Oradea pentru 3 mandate. La alegerile din 2020 a fost ales președinte al Consiliului Județean Bihor, PNL obținând majoritatea voturilor din Consiliu.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA3dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMTcl/MkYwMyUyRjE5JTJGNzUzOTYzXzc1Mzk2/M19pbGllLWJvbG9qYW4zLmpwZyZ3PTc4/MCZoPTQ0MCZoYXNoPTAyYjJmMzMyMGM4ZmU5MDdjMDA1NDgzNWQ2MDI4NjIz.thumb.jpg</t>
+  </si>
+  <si>
+    <t>07.03.1969</t>
+  </si>
+  <si>
+    <t>Anca</t>
+  </si>
+  <si>
+    <t>Dragu</t>
+  </si>
+  <si>
+    <t>Președinte Senat</t>
+  </si>
+  <si>
+    <t>Anca Dana Dragu Paliu este o economistă română care, începând cu 22 decembrie 2023, este guvernatorul Băncii Naționale a Moldovei. A fost ministru de finanțe al României. La data de 22 decembrie 2020 a fost aleasă președinte al Senatului României, fiind prima femeie care a ocupat acel post.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/61/Anca-paliu-dragu.jpg</t>
+  </si>
+  <si>
+    <t>03.05.1972</t>
+  </si>
+  <si>
+    <t>Ghinea</t>
+  </si>
+  <si>
+    <t>Cristian Ghinea este un politician, politolog și fost publicist român. A ținut o rubrică săptămânală în revista Dilema Veche. A făcut un masterat în politologie la London School of Economics. Întors în România, a fondat și a condus think tank-ul Centrul Român de Politici Europene.</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS3Yi1uLzcgy4QTQYJfDymf_Vs8B6hClHn8mw&amp;s</t>
+  </si>
+  <si>
+    <t>20.07.1977</t>
+  </si>
+  <si>
+    <t>Cîțu</t>
+  </si>
+  <si>
+    <r>
+      <t>Florin-Vasile Cîțu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> este un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>politician</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>economist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>român</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>senator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> al circumscripției </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>București</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> A fost cel de-al 69-lea </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prim-ministru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>României</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, în perioada 23 decembrie 2020 – 25 noiembrie 2021, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ministru al Finanțelor Publice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> în </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>guvernele Ludovic Orban I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> și </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>II</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, președinte al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Partidului Național Liberal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> între 25 septembrie 2021 și 2 aprilie 2022 și președinte al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Senatului</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> între 23 noiembrie 2021 și 29 iunie 2022.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.antena3.ro/pictures/tags/florin-citu_77b9bc5.jpg</t>
+  </si>
+  <si>
+    <t>01.04.1972</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Șoșoacă</t>
+  </si>
+  <si>
+    <t>Diana Iovanovici-Șoșoacă este o avocată română, senatoare în legislatura 2020-2024 și membră al Parlamentului European în legislatura 2024-2029, afiliată partidului S.O.S. România. Este cunoscută pentru mesajele ei anti-vacciniste, anti-europene. În 2021 a fost exclusă din partidul AUR din motive de indisciplină.</t>
+  </si>
+  <si>
+    <t>https://zcj.ro/images/db/1_3_265706_1719824064_02164_fav.jpg</t>
+  </si>
+  <si>
+    <t>13.11.1975</t>
+  </si>
+  <si>
+    <t>Fondator</t>
+  </si>
+  <si>
+    <t>Negrescu</t>
+  </si>
+  <si>
+    <t>Bruxelles</t>
+  </si>
+  <si>
+    <t>Victor Negrescu este cadru universitar și om politic de stânga, fost ministru delegat pentru afaceri europene și membru al Parlamentului European. La 1 februarie 2020, Victor Negrescu a preluat mandatul de europarlamentar, ca urmare a faptului că România a obținut, după Brexit, un nou mandat în Parlamentul European. </t>
+  </si>
+  <si>
+    <t>https://www.civica.eu/fileadmin/_processed_/files/c/4/csm_Victor_Negrescu_-_Credit_European_Parliament_0c54eb3e53.jpg</t>
+  </si>
+  <si>
+    <t>17.08.1985</t>
+  </si>
+  <si>
+    <t>Blaga</t>
+  </si>
+  <si>
+    <t>Vasile Blaga este un politician român, președinte al Partidului Democrat Liberal din 30 iunie 2012 până în noiembrie 2014, președinte al Senatului României din 29 noiembrie 2011 până în 3 iulie 2012.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA3dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMTYl/MkYwOSUyRjI4JTJGNjg2NTQzXzY4NjU0/M192YXNpbGVfYmxhZ2EuanBnJnc9Nzgw/Jmg9NDQwJmhhc2g9ZGEyZTY0ZjAyYjBiZmNiMjQ4NWExYTMyMThhOTkzNTE=.thumb.jpg</t>
+  </si>
+  <si>
+    <t>26.07.1956</t>
+  </si>
+  <si>
+    <t>Liviu</t>
+  </si>
+  <si>
+    <t>Dragnea</t>
+  </si>
+  <si>
+    <t>Fost Președinte PSD</t>
+  </si>
+  <si>
+    <t>Liviu Nicolae Dragnea este un politician român, fost președinte al Partidului Social Democrat și fost președinte al Camerei Deputaților. Până la încarcerarea sa, Liviu Dragnea era considerat cel mai influent politician din România.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA3dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjEl/MkYwOSUyRjIwJTJGMTM4Njg5M18xMzg2/ODkzX2xpdml1LWRyYWduZWEtbm91LXBh/cnRpZC5qcGcmdz03ODAmaD00NDAmaGFz/aD0yYjNmNWVmMDY4NDUwNWU1NzA3MmFjMjI4ZjU4YjM0Yw==.thumb.jpg</t>
+  </si>
+  <si>
+    <t>28.10.1962</t>
+  </si>
+  <si>
+    <t>Raluca</t>
+  </si>
+  <si>
+    <t>Turcan</t>
+  </si>
+  <si>
+    <t>Vice Prim-Ministru</t>
+  </si>
+  <si>
+    <t>Raluca Turcan este un politician român, deputat de Sibiu în Parlamentul României, ministru al culturii din România. Din 14 noiembrie 2019 până în 23 decembrie 2020, Raluca Turcan a fost vicepremier al ambelor guverne Ludovic Orban și al guvernului Florin Cîțu.</t>
+  </si>
+  <si>
+    <t>https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwNCUyRjA0JTJGMTk0NTE2MF8xOTQ1/MTYwX3JhbHVjYS10dXJjYW4uanBnJnc9/NzgwJmg9NDQwJmhhc2g9MTM4MjhhNDFjNjdhYTY3MTI4Y2M5YzA1NDQ5OWUzNzA=.thumb.jpg</t>
+  </si>
+  <si>
+    <t>2.04.1976</t>
+  </si>
+  <si>
+    <t>Teodorovici</t>
+  </si>
+  <si>
+    <t>Fost ministru al Finanțelor</t>
+  </si>
+  <si>
+    <t>Eugen Orlando Teodorovici este un politician român, senator de Buzău și Tulcea din partea Partidului Social Democrat. A fost ministru al fondurilor europene și apoi al finanțelor publice în Guvernul Victor Ponta. A fost ministru al finanțelor publice în Guvernul Viorica Dăncilă.</t>
+  </si>
+  <si>
+    <t>https://www.ceccarbusinessmagazine.ro/img/w-660/h-0/imagini/articole/2020/11/46-47/eugen-teodorovici-sustinem-spiritul-antreprenorial-in-toate-domeniile-a7082.png</t>
+  </si>
+  <si>
+    <t>12.08.1971</t>
+  </si>
+  <si>
+    <t>Sârbu</t>
+  </si>
+  <si>
+    <t>Fost ministru al Agriculturii</t>
+  </si>
+  <si>
+    <t>Ilie Sârbu este un politician român, de profesie preot ortodox. Între 2000-2004 a fost ministru al agriculturii în guvernul Năstase. În legislatura 2004-2008 a fost senator de Timiș din partea PSD. În perioada octombrie-decembrie 2008, în urma demisiei lui Nicolae Văcăroiu, a fost președinte al Senatului României.</t>
+  </si>
+  <si>
+    <t>https://img.observatornews.ro/0/2015/9/16/161563/14423994710a6292e3.jpg?w=1200</t>
+  </si>
+  <si>
+    <t>26.04.1950</t>
+  </si>
+  <si>
+    <t>Theodor</t>
+  </si>
+  <si>
+    <t>Paleologu</t>
+  </si>
+  <si>
+    <t>Fost ministru al Culturii</t>
+  </si>
+  <si>
+    <t>Theodor Paleologu este un eseist, profesor, diplomat și om politic român, președinte al Fundației Paleologu. Theodor Paleologu a fost deputat de București începând cu legislatura 2008-2012, fiind ales în 2008 din partea Partidului Democrat Liberal și în 2012 din partea Alianței România Dreaptă.</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTdGuvg0qu2Ifr7-o3tjKQ3F1mUn9TokPWlRw&amp;s</t>
+  </si>
+  <si>
+    <t>15.07.1973</t>
+  </si>
+  <si>
+    <t>Ramona</t>
+  </si>
+  <si>
+    <t>Strugariu</t>
+  </si>
+  <si>
+    <t>Membru al Parlamentului European</t>
+  </si>
+  <si>
+    <t>Ramona Strugariu este un politician român care ocupă în prezent funcția de deputat în Parlamentul European. A fost membră a PLUS până în 2022, când a fondat împreună cu alți europarlamentari partidul REPER, din care este copreședinte alături de Dragoș Pîslaru. </t>
+  </si>
+  <si>
+    <t>https://i0.1616.ro/media/2/2701/33605/21481327/1/captura-de-ecran-2022-06-11-225847.png?width=640</t>
+  </si>
+  <si>
+    <t>26.08.1984</t>
+  </si>
+  <si>
+    <t>Nicu</t>
+  </si>
+  <si>
+    <t>Ștefănuță</t>
+  </si>
+  <si>
+    <t>Nicolae-Bogdănel Ștefănuță este un politician român, ales europarlamentar din partea României în legislatura anterioară Parlamentului European (PE), pe lista Alianței USR-PLUS, și reales în a zecea legislatură ca independent.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d0/Nicolae_%C5%9Etef%C4%83nu%C5%A3%C4%83.jpg/330px-Nicolae_%C5%9Etef%C4%83nu%C5%A3%C4%83.jpg</t>
+  </si>
+  <si>
+    <t>3.01.1982</t>
+  </si>
+  <si>
+    <t>Fost Primar Sectorul 5</t>
+  </si>
+  <si>
+    <t>Cristian Victor Piedone Popescu (n. 15 februarie 1963, București) este un om politic, membru al PUSL și fost primar al sectorului 5 din București.</t>
+  </si>
+  <si>
+    <t>https://hotnews.ro/wp-content/uploads/2024/06/image-2024-06-6-27191698-41-cristian-popescu-piedone-2.jpg?w=800&amp;h=533&amp;crop=1</t>
+  </si>
+  <si>
+    <t>15.02.1963</t>
+  </si>
+  <si>
+    <t>PUSL</t>
+  </si>
+  <si>
+    <t>Geoană</t>
+  </si>
+  <si>
+    <t>Secretar General Adjunct al NATO</t>
+  </si>
+  <si>
+    <t>Mircea Dan Geoană (n. 14 iulie 1958, București, România) este un politician român, adjunct al secretarului general al NATO[4], fost președinte al Partidului Social Românesc, formațiune pe care a fondat-o în aprilie 2015. De asemenea, Mircea Geoană este președintele Institutului Aspen România, o asociație non-profit, apolitică. Institutul are ca misiune promovarea unui dialog informat și critic pe diverse teme de interes pentru societatea românească. Mircea Geoană a fost președintele Partidului Social Democrat din aprilie 2005 până în februarie 2010, președinte al Senatului României din decembrie 2008 până în noiembrie 2011, senator, fost Ambasador al României în SUA și Ministru de Externe în Guvernul Năstase.</t>
+  </si>
+  <si>
+    <t>https://spotmedia.ro/wp-content/uploads/2023/03/mircea-geoana-scaled.jpg</t>
+  </si>
+  <si>
+    <t>14.07.1958</t>
+  </si>
+  <si>
+    <t>S.O.S.</t>
+  </si>
+  <si>
+    <t>PRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,6 +1980,174 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="6408420" y="15544800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 1" descr="image"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6408420" y="12649200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2" descr="image"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6408420" y="12832080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3" descr="image"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6408420" y="13014960"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 4" descr="image"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6408420" y="13197840"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -536,10 +2433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,9 +2479,2287 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>200</v>
+      </c>
+      <c r="H29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" t="s">
+        <v>218</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" t="s">
+        <v>207</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" t="s">
+        <v>248</v>
+      </c>
+      <c r="G37" t="s">
+        <v>249</v>
+      </c>
+      <c r="H37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" t="s">
+        <v>267</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" t="s">
+        <v>271</v>
+      </c>
+      <c r="F41" t="s">
+        <v>272</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" t="s">
+        <v>274</v>
+      </c>
+      <c r="D42" t="s">
+        <v>275</v>
+      </c>
+      <c r="E42" t="s">
+        <v>275</v>
+      </c>
+      <c r="F42" t="s">
+        <v>276</v>
+      </c>
+      <c r="H42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B43" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" t="s">
+        <v>280</v>
+      </c>
+      <c r="E43" t="s">
+        <v>281</v>
+      </c>
+      <c r="F43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" t="s">
+        <v>283</v>
+      </c>
+      <c r="H43" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>286</v>
+      </c>
+      <c r="D44" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" t="s">
+        <v>287</v>
+      </c>
+      <c r="F44" t="s">
+        <v>288</v>
+      </c>
+      <c r="H44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>291</v>
+      </c>
+      <c r="E45" t="s">
+        <v>292</v>
+      </c>
+      <c r="F45" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" t="s">
+        <v>294</v>
+      </c>
+      <c r="H45" t="s">
+        <v>295</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>296</v>
+      </c>
+      <c r="B46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" t="s">
+        <v>299</v>
+      </c>
+      <c r="E46" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" t="s">
+        <v>300</v>
+      </c>
+      <c r="H46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" t="s">
+        <v>302</v>
+      </c>
+      <c r="C47" t="s">
+        <v>303</v>
+      </c>
+      <c r="D47" t="s">
+        <v>304</v>
+      </c>
+      <c r="E47" t="s">
+        <v>304</v>
+      </c>
+      <c r="F47" t="s">
+        <v>305</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>306</v>
+      </c>
+      <c r="B48" t="s">
+        <v>307</v>
+      </c>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" t="s">
+        <v>309</v>
+      </c>
+      <c r="E48" t="s">
+        <v>310</v>
+      </c>
+      <c r="F48" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" t="s">
+        <v>312</v>
+      </c>
+      <c r="H48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>313</v>
+      </c>
+      <c r="B49" t="s">
+        <v>314</v>
+      </c>
+      <c r="C49" t="s">
+        <v>315</v>
+      </c>
+      <c r="D49" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" t="s">
+        <v>317</v>
+      </c>
+      <c r="F49" t="s">
+        <v>318</v>
+      </c>
+      <c r="G49" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" t="s">
+        <v>322</v>
+      </c>
+      <c r="E50" t="s">
+        <v>323</v>
+      </c>
+      <c r="F50" t="s">
+        <v>324</v>
+      </c>
+      <c r="G50" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>326</v>
+      </c>
+      <c r="B51" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" t="s">
+        <v>328</v>
+      </c>
+      <c r="D51" t="s">
+        <v>329</v>
+      </c>
+      <c r="E51" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" t="s">
+        <v>330</v>
+      </c>
+      <c r="H51" t="s">
+        <v>331</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" t="s">
+        <v>334</v>
+      </c>
+      <c r="D52" t="s">
+        <v>335</v>
+      </c>
+      <c r="E52" t="s">
+        <v>335</v>
+      </c>
+      <c r="F52" t="s">
+        <v>336</v>
+      </c>
+      <c r="H52" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>337</v>
+      </c>
+      <c r="B53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>339</v>
+      </c>
+      <c r="E53" t="s">
+        <v>340</v>
+      </c>
+      <c r="F53" t="s">
+        <v>341</v>
+      </c>
+      <c r="G53" t="s">
+        <v>342</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>344</v>
+      </c>
+      <c r="E54" t="s">
+        <v>345</v>
+      </c>
+      <c r="F54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G54" t="s">
+        <v>347</v>
+      </c>
+      <c r="H54" t="s">
+        <v>348</v>
+      </c>
+      <c r="I54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" t="s">
+        <v>350</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>344</v>
+      </c>
+      <c r="E55" t="s">
+        <v>351</v>
+      </c>
+      <c r="F55" t="s">
+        <v>352</v>
+      </c>
+      <c r="G55" t="s">
+        <v>353</v>
+      </c>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" t="s">
+        <v>356</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" t="s">
+        <v>344</v>
+      </c>
+      <c r="E56" t="s">
+        <v>357</v>
+      </c>
+      <c r="F56" t="s">
+        <v>358</v>
+      </c>
+      <c r="G56" t="s">
+        <v>359</v>
+      </c>
+      <c r="H56" t="s">
+        <v>188</v>
+      </c>
+      <c r="I56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>360</v>
+      </c>
+      <c r="B57" t="s">
+        <v>361</v>
+      </c>
+      <c r="C57" t="s">
+        <v>362</v>
+      </c>
+      <c r="D57" t="s">
+        <v>363</v>
+      </c>
+      <c r="E57" t="s">
+        <v>364</v>
+      </c>
+      <c r="F57" t="s">
+        <v>365</v>
+      </c>
+      <c r="G57" t="s">
+        <v>366</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B58" t="s">
+        <v>367</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>368</v>
+      </c>
+      <c r="E58" t="s">
+        <v>369</v>
+      </c>
+      <c r="F58" t="s">
+        <v>370</v>
+      </c>
+      <c r="G58" t="s">
+        <v>371</v>
+      </c>
+      <c r="H58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>373</v>
+      </c>
+      <c r="B59" t="s">
+        <v>374</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>368</v>
+      </c>
+      <c r="E59" t="s">
+        <v>375</v>
+      </c>
+      <c r="F59" t="s">
+        <v>376</v>
+      </c>
+      <c r="G59" t="s">
+        <v>377</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>379</v>
+      </c>
+      <c r="B60" t="s">
+        <v>380</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>381</v>
+      </c>
+      <c r="F60" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" t="s">
+        <v>383</v>
+      </c>
+      <c r="H60" t="s">
+        <v>384</v>
+      </c>
+      <c r="I60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>385</v>
+      </c>
+      <c r="B61" t="s">
+        <v>386</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" t="s">
+        <v>363</v>
+      </c>
+      <c r="E61" t="s">
+        <v>387</v>
+      </c>
+      <c r="F61" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>391</v>
+      </c>
+      <c r="B62" t="s">
+        <v>392</v>
+      </c>
+      <c r="C62" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" t="s">
+        <v>393</v>
+      </c>
+      <c r="E62" t="s">
+        <v>394</v>
+      </c>
+      <c r="F62" t="s">
+        <v>395</v>
+      </c>
+      <c r="G62" t="s">
+        <v>396</v>
+      </c>
+      <c r="H62" t="s">
+        <v>397</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>301</v>
+      </c>
+      <c r="B63" t="s">
+        <v>398</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>399</v>
+      </c>
+      <c r="E63" t="s">
+        <v>400</v>
+      </c>
+      <c r="F63" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" t="s">
+        <v>402</v>
+      </c>
+      <c r="H63" t="s">
+        <v>496</v>
+      </c>
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>403</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>344</v>
+      </c>
+      <c r="E64" t="s">
+        <v>404</v>
+      </c>
+      <c r="F64" t="s">
+        <v>405</v>
+      </c>
+      <c r="G64" t="s">
+        <v>406</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>407</v>
+      </c>
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>408</v>
+      </c>
+      <c r="F65" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" t="s">
+        <v>410</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" t="s">
+        <v>412</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>413</v>
+      </c>
+      <c r="E66" t="s">
+        <v>414</v>
+      </c>
+      <c r="F66" t="s">
+        <v>415</v>
+      </c>
+      <c r="G66" t="s">
+        <v>416</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>417</v>
+      </c>
+      <c r="B67" t="s">
+        <v>418</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>419</v>
+      </c>
+      <c r="E67" t="s">
+        <v>420</v>
+      </c>
+      <c r="F67" t="s">
+        <v>421</v>
+      </c>
+      <c r="G67" t="s">
+        <v>422</v>
+      </c>
+      <c r="H67" t="s">
+        <v>384</v>
+      </c>
+      <c r="I67" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" t="s">
+        <v>423</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
+        <v>424</v>
+      </c>
+      <c r="F68" t="s">
+        <v>425</v>
+      </c>
+      <c r="G68" t="s">
+        <v>426</v>
+      </c>
+      <c r="H68" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>427</v>
+      </c>
+      <c r="C69" t="s">
+        <v>328</v>
+      </c>
+      <c r="D69" t="s">
+        <v>368</v>
+      </c>
+      <c r="E69" t="s">
+        <v>428</v>
+      </c>
+      <c r="F69" t="s">
+        <v>429</v>
+      </c>
+      <c r="G69" t="s">
+        <v>430</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>368</v>
+      </c>
+      <c r="E70" t="s">
+        <v>433</v>
+      </c>
+      <c r="F70" t="s">
+        <v>434</v>
+      </c>
+      <c r="G70" t="s">
+        <v>435</v>
+      </c>
+      <c r="H70" t="s">
+        <v>495</v>
+      </c>
+      <c r="I70" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" t="s">
+        <v>437</v>
+      </c>
+      <c r="C71" t="s">
+        <v>438</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>439</v>
+      </c>
+      <c r="F71" t="s">
+        <v>440</v>
+      </c>
+      <c r="G71" t="s">
+        <v>441</v>
+      </c>
+      <c r="H71" t="s">
+        <v>49</v>
+      </c>
+      <c r="I71" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>296</v>
+      </c>
+      <c r="B72" t="s">
+        <v>442</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>368</v>
+      </c>
+      <c r="E72" t="s">
+        <v>443</v>
+      </c>
+      <c r="F72" t="s">
+        <v>444</v>
+      </c>
+      <c r="G72" t="s">
+        <v>445</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>446</v>
+      </c>
+      <c r="B73" t="s">
+        <v>447</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" t="s">
+        <v>448</v>
+      </c>
+      <c r="E73" t="s">
+        <v>449</v>
+      </c>
+      <c r="F73" t="s">
+        <v>450</v>
+      </c>
+      <c r="G73" t="s">
+        <v>451</v>
+      </c>
+      <c r="H73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>452</v>
+      </c>
+      <c r="B74" t="s">
+        <v>453</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" t="s">
+        <v>454</v>
+      </c>
+      <c r="E74" t="s">
+        <v>455</v>
+      </c>
+      <c r="F74" t="s">
+        <v>456</v>
+      </c>
+      <c r="G74" t="s">
+        <v>457</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>391</v>
+      </c>
+      <c r="B75" t="s">
+        <v>458</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" t="s">
+        <v>459</v>
+      </c>
+      <c r="E75" t="s">
+        <v>460</v>
+      </c>
+      <c r="F75" t="s">
+        <v>461</v>
+      </c>
+      <c r="G75" t="s">
+        <v>462</v>
+      </c>
+      <c r="H75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>314</v>
+      </c>
+      <c r="B76" t="s">
+        <v>463</v>
+      </c>
+      <c r="C76" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>464</v>
+      </c>
+      <c r="E76" t="s">
+        <v>465</v>
+      </c>
+      <c r="F76" t="s">
+        <v>466</v>
+      </c>
+      <c r="G76" t="s">
+        <v>467</v>
+      </c>
+      <c r="H76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>468</v>
+      </c>
+      <c r="B77" t="s">
+        <v>469</v>
+      </c>
+      <c r="C77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" t="s">
+        <v>470</v>
+      </c>
+      <c r="E77" t="s">
+        <v>471</v>
+      </c>
+      <c r="F77" t="s">
+        <v>472</v>
+      </c>
+      <c r="G77" t="s">
+        <v>473</v>
+      </c>
+      <c r="H77" t="s">
+        <v>397</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>474</v>
+      </c>
+      <c r="B78" t="s">
+        <v>475</v>
+      </c>
+      <c r="C78" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>476</v>
+      </c>
+      <c r="E78" t="s">
+        <v>477</v>
+      </c>
+      <c r="F78" t="s">
+        <v>478</v>
+      </c>
+      <c r="G78" t="s">
+        <v>479</v>
+      </c>
+      <c r="H78" t="s">
+        <v>384</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>480</v>
+      </c>
+      <c r="B79" t="s">
+        <v>481</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" t="s">
+        <v>482</v>
+      </c>
+      <c r="F79" t="s">
+        <v>483</v>
+      </c>
+      <c r="G79" t="s">
+        <v>484</v>
+      </c>
+      <c r="H79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>485</v>
+      </c>
+      <c r="E80" t="s">
+        <v>486</v>
+      </c>
+      <c r="F80" t="s">
+        <v>487</v>
+      </c>
+      <c r="G80" t="s">
+        <v>488</v>
+      </c>
+      <c r="H80" t="s">
+        <v>489</v>
+      </c>
+      <c r="I80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>326</v>
+      </c>
+      <c r="B81" t="s">
+        <v>490</v>
+      </c>
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" t="s">
+        <v>491</v>
+      </c>
+      <c r="E81" t="s">
+        <v>492</v>
+      </c>
+      <c r="F81" t="s">
+        <v>493</v>
+      </c>
+      <c r="G81" t="s">
+        <v>494</v>
+      </c>
+      <c r="H81" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" display="https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA4dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjQl/MkYwMiUyRjI0JTJGMTkxMzQ0M18xOTEz/NDQzX01hcmNlbC1DaW9sYWN1LW1pcmF0/LmpwZyZ3PTc4MCZoPTQ0MCZoYXNoPWJh/NWRiNzQ2YTUwODJjZjgxNzcyMDdmNjR"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F17" display="https://s.iw.ro/gateway/g/ZmlsZVNvdXJjZT1odHRwJTNBJTJGJTJG/c3RvcmFnZTA2dHJhbnNjb2Rlci5yY3Mt/cmRzLnJvJTJGc3RvcmFnZSUyRjIwMjAl/MkYxMiUyRjI3JTJGMTI2ODYyM18xMjY4/NjIzX2dlb3JnZS10dXRhLmpwZyZ3PTc4/MCZoPTQ0MCZoYXNoPTIxNjRjYzNhZTJmZGZiYjM2Zjc2MWUxMzMyMzUwYWI0.thu"/>
+    <hyperlink ref="F18" r:id="rId10"/>
+    <hyperlink ref="F23" r:id="rId11"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>